--- a/Subresultados/50tries/xlsx/woGRASP/GACEPc50.xlsx
+++ b/Subresultados/50tries/xlsx/woGRASP/GACEPc50.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose Manuel\Desktop\TFG_IRENE\xlsx\woGRASP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="GACEP" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="GACEP" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -22,328 +26,310 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
-    <t xml:space="preserve">milestone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F97</t>
+    <t>milestone</t>
+  </si>
+  <si>
+    <t>F01</t>
+  </si>
+  <si>
+    <t>F02</t>
+  </si>
+  <si>
+    <t>F03</t>
+  </si>
+  <si>
+    <t>F04</t>
+  </si>
+  <si>
+    <t>F05</t>
+  </si>
+  <si>
+    <t>F06</t>
+  </si>
+  <si>
+    <t>F07</t>
+  </si>
+  <si>
+    <t>F08</t>
+  </si>
+  <si>
+    <t>F09</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>F13</t>
+  </si>
+  <si>
+    <t>F14</t>
+  </si>
+  <si>
+    <t>F15</t>
+  </si>
+  <si>
+    <t>F16</t>
+  </si>
+  <si>
+    <t>F17</t>
+  </si>
+  <si>
+    <t>F18</t>
+  </si>
+  <si>
+    <t>F19</t>
+  </si>
+  <si>
+    <t>F20</t>
+  </si>
+  <si>
+    <t>F21</t>
+  </si>
+  <si>
+    <t>F22</t>
+  </si>
+  <si>
+    <t>F23</t>
+  </si>
+  <si>
+    <t>F24</t>
+  </si>
+  <si>
+    <t>F25</t>
+  </si>
+  <si>
+    <t>F26</t>
+  </si>
+  <si>
+    <t>F27</t>
+  </si>
+  <si>
+    <t>F28</t>
+  </si>
+  <si>
+    <t>F29</t>
+  </si>
+  <si>
+    <t>F30</t>
+  </si>
+  <si>
+    <t>F31</t>
+  </si>
+  <si>
+    <t>F32</t>
+  </si>
+  <si>
+    <t>F33</t>
+  </si>
+  <si>
+    <t>F34</t>
+  </si>
+  <si>
+    <t>F35</t>
+  </si>
+  <si>
+    <t>F36</t>
+  </si>
+  <si>
+    <t>F37</t>
+  </si>
+  <si>
+    <t>F38</t>
+  </si>
+  <si>
+    <t>F39</t>
+  </si>
+  <si>
+    <t>F40</t>
+  </si>
+  <si>
+    <t>F41</t>
+  </si>
+  <si>
+    <t>F42</t>
+  </si>
+  <si>
+    <t>F43</t>
+  </si>
+  <si>
+    <t>F44</t>
+  </si>
+  <si>
+    <t>F45</t>
+  </si>
+  <si>
+    <t>F46</t>
+  </si>
+  <si>
+    <t>F47</t>
+  </si>
+  <si>
+    <t>F48</t>
+  </si>
+  <si>
+    <t>F49</t>
+  </si>
+  <si>
+    <t>F50</t>
+  </si>
+  <si>
+    <t>F51</t>
+  </si>
+  <si>
+    <t>F52</t>
+  </si>
+  <si>
+    <t>F53</t>
+  </si>
+  <si>
+    <t>F54</t>
+  </si>
+  <si>
+    <t>F55</t>
+  </si>
+  <si>
+    <t>F56</t>
+  </si>
+  <si>
+    <t>F57</t>
+  </si>
+  <si>
+    <t>F58</t>
+  </si>
+  <si>
+    <t>F59</t>
+  </si>
+  <si>
+    <t>F60</t>
+  </si>
+  <si>
+    <t>F61</t>
+  </si>
+  <si>
+    <t>F62</t>
+  </si>
+  <si>
+    <t>F63</t>
+  </si>
+  <si>
+    <t>F64</t>
+  </si>
+  <si>
+    <t>F65</t>
+  </si>
+  <si>
+    <t>F66</t>
+  </si>
+  <si>
+    <t>F67</t>
+  </si>
+  <si>
+    <t>F68</t>
+  </si>
+  <si>
+    <t>F69</t>
+  </si>
+  <si>
+    <t>F70</t>
+  </si>
+  <si>
+    <t>F71</t>
+  </si>
+  <si>
+    <t>F72</t>
+  </si>
+  <si>
+    <t>F73</t>
+  </si>
+  <si>
+    <t>F74</t>
+  </si>
+  <si>
+    <t>F75</t>
+  </si>
+  <si>
+    <t>F76</t>
+  </si>
+  <si>
+    <t>F77</t>
+  </si>
+  <si>
+    <t>F78</t>
+  </si>
+  <si>
+    <t>F79</t>
+  </si>
+  <si>
+    <t>F80</t>
+  </si>
+  <si>
+    <t>F81</t>
+  </si>
+  <si>
+    <t>F82</t>
+  </si>
+  <si>
+    <t>F83</t>
+  </si>
+  <si>
+    <t>F84</t>
+  </si>
+  <si>
+    <t>F85</t>
+  </si>
+  <si>
+    <t>F86</t>
+  </si>
+  <si>
+    <t>F87</t>
+  </si>
+  <si>
+    <t>F88</t>
+  </si>
+  <si>
+    <t>F89</t>
+  </si>
+  <si>
+    <t>F90</t>
+  </si>
+  <si>
+    <t>F91</t>
+  </si>
+  <si>
+    <t>F92</t>
+  </si>
+  <si>
+    <t>F93</t>
+  </si>
+  <si>
+    <t>F94</t>
+  </si>
+  <si>
+    <t>F95</t>
+  </si>
+  <si>
+    <t>F96</t>
+  </si>
+  <si>
+    <t>F97</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -355,7 +341,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -363,4511 +349,4749 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CT15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:CT15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:CT15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="2" style="0" width="7.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.38"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="14" width="8" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AE1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="0" t="s">
+      <c r="AF1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="0" t="s">
+      <c r="AG1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="0" t="s">
+      <c r="AH1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="0" t="s">
+      <c r="AI1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="0" t="s">
+      <c r="AJ1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="0" t="s">
+      <c r="AK1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="0" t="s">
+      <c r="AL1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="0" t="s">
+      <c r="AM1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="0" t="s">
+      <c r="AN1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="0" t="s">
+      <c r="AO1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="0" t="s">
+      <c r="AP1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="0" t="s">
+      <c r="AQ1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="0" t="s">
+      <c r="AR1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="0" t="s">
+      <c r="AS1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="0" t="s">
+      <c r="AT1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="0" t="s">
+      <c r="AU1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="0" t="s">
+      <c r="AV1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="0" t="s">
+      <c r="AW1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="0" t="s">
+      <c r="AX1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="0" t="s">
+      <c r="AY1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="0" t="s">
+      <c r="AZ1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="0" t="s">
+      <c r="BA1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="0" t="s">
+      <c r="BB1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="0" t="s">
+      <c r="BC1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="0" t="s">
+      <c r="BD1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="0" t="s">
+      <c r="BE1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="0" t="s">
+      <c r="BF1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="0" t="s">
+      <c r="BG1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="0" t="s">
+      <c r="BH1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="0" t="s">
+      <c r="BI1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="0" t="s">
+      <c r="BJ1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="0" t="s">
+      <c r="BK1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="0" t="s">
+      <c r="BL1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="0" t="s">
+      <c r="BM1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="0" t="s">
+      <c r="BN1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="0" t="s">
+      <c r="BO1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="0" t="s">
+      <c r="BP1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="0" t="s">
+      <c r="BQ1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="0" t="s">
+      <c r="BR1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="0" t="s">
+      <c r="BS1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="0" t="s">
+      <c r="BT1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="0" t="s">
+      <c r="BU1" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="0" t="s">
+      <c r="BV1" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="0" t="s">
+      <c r="BW1" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="0" t="s">
+      <c r="BX1" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="0" t="s">
+      <c r="BY1" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="0" t="s">
+      <c r="BZ1" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="0" t="s">
+      <c r="CA1" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="0" t="s">
+      <c r="CB1" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="0" t="s">
+      <c r="CC1" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="0" t="s">
+      <c r="CD1" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="0" t="s">
+      <c r="CE1" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="0" t="s">
+      <c r="CF1" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="0" t="s">
+      <c r="CG1" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="0" t="s">
+      <c r="CH1" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="0" t="s">
+      <c r="CI1" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="0" t="s">
+      <c r="CJ1" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="0" t="s">
+      <c r="CK1" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="0" t="s">
+      <c r="CL1" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="0" t="s">
+      <c r="CM1" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="0" t="s">
+      <c r="CN1" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="0" t="s">
+      <c r="CO1" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="0" t="s">
+      <c r="CP1" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="0" t="s">
+      <c r="CQ1" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="0" t="s">
+      <c r="CR1" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="0" t="s">
+      <c r="CS1" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="0" t="s">
+      <c r="CT1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>175476</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>56678.9</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2">
         <v>175269</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>218270</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>222727</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2">
         <v>48612.3</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2">
         <v>7353.56</v>
       </c>
-      <c r="I2" s="0" t="n">
-        <v>41221.7</v>
-      </c>
-      <c r="J2" s="0" t="n">
+      <c r="I2">
+        <v>41221.699999999997</v>
+      </c>
+      <c r="J2">
         <v>227930</v>
       </c>
-      <c r="K2" s="0" t="n">
-        <v>17613.6</v>
-      </c>
-      <c r="L2" s="0" t="n">
+      <c r="K2">
+        <v>17613.599999999999</v>
+      </c>
+      <c r="L2">
         <v>12734.8</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2">
         <v>52652.2</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="N2">
         <v>2250.02</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="O2">
         <v>45575.5</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="P2">
         <v>59490.2</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="Q2">
         <v>28201</v>
       </c>
-      <c r="R2" s="0" t="n">
-        <v>9213.72</v>
-      </c>
-      <c r="S2" s="0" t="n">
+      <c r="R2">
+        <v>9213.7199999999993</v>
+      </c>
+      <c r="S2">
         <v>14584.4</v>
       </c>
-      <c r="T2" s="0" t="n">
-        <v>28222.8</v>
-      </c>
-      <c r="U2" s="0" t="n">
+      <c r="T2">
+        <v>28222.799999999999</v>
+      </c>
+      <c r="U2">
         <v>78294.5</v>
       </c>
-      <c r="V2" s="0" t="n">
+      <c r="V2">
         <v>69477</v>
       </c>
-      <c r="W2" s="0" t="n">
+      <c r="W2">
         <v>97247.2</v>
       </c>
-      <c r="X2" s="0" t="n">
+      <c r="X2">
         <v>22187.8</v>
       </c>
-      <c r="Y2" s="0" t="n">
+      <c r="Y2">
         <v>98543.2</v>
       </c>
-      <c r="Z2" s="0" t="n">
-        <v>39608.8</v>
-      </c>
-      <c r="AA2" s="0" t="n">
-        <v>10033.3</v>
-      </c>
-      <c r="AB2" s="0" t="n">
+      <c r="Z2">
+        <v>39608.800000000003</v>
+      </c>
+      <c r="AA2">
+        <v>10033.299999999999</v>
+      </c>
+      <c r="AB2">
         <v>37224.5</v>
       </c>
-      <c r="AC2" s="0" t="n">
-        <v>39763.3</v>
-      </c>
-      <c r="AD2" s="0" t="n">
+      <c r="AC2">
+        <v>39763.300000000003</v>
+      </c>
+      <c r="AD2">
         <v>54614.2</v>
       </c>
-      <c r="AE2" s="0" t="n">
+      <c r="AE2">
         <v>130834</v>
       </c>
-      <c r="AF2" s="0" t="n">
+      <c r="AF2">
         <v>188413</v>
       </c>
-      <c r="AG2" s="0" t="n">
+      <c r="AG2">
         <v>78168.7</v>
       </c>
-      <c r="AH2" s="0" t="n">
+      <c r="AH2">
         <v>41530.5</v>
       </c>
-      <c r="AI2" s="0" t="n">
+      <c r="AI2">
         <v>53408.9</v>
       </c>
-      <c r="AJ2" s="0" t="n">
-        <v>16449.4</v>
-      </c>
-      <c r="AK2" s="0" t="n">
+      <c r="AJ2">
+        <v>16449.400000000001</v>
+      </c>
+      <c r="AK2">
         <v>131850</v>
       </c>
-      <c r="AL2" s="0" t="n">
+      <c r="AL2">
         <v>93404.5</v>
       </c>
-      <c r="AM2" s="0" t="n">
+      <c r="AM2">
         <v>11177.8</v>
       </c>
-      <c r="AN2" s="0" t="n">
+      <c r="AN2">
         <v>84648.3</v>
       </c>
-      <c r="AO2" s="0" t="n">
+      <c r="AO2">
         <v>253508</v>
       </c>
-      <c r="AP2" s="0" t="n">
+      <c r="AP2">
         <v>920065</v>
       </c>
-      <c r="AQ2" s="0" t="n">
+      <c r="AQ2">
         <v>180055</v>
       </c>
-      <c r="AR2" s="0" t="n">
+      <c r="AR2">
         <v>15993.1</v>
       </c>
-      <c r="AS2" s="0" t="n">
+      <c r="AS2">
         <v>50586.2</v>
       </c>
-      <c r="AT2" s="0" t="n">
+      <c r="AT2">
         <v>709019</v>
       </c>
-      <c r="AU2" s="0" t="n">
+      <c r="AU2">
         <v>21677.4</v>
       </c>
-      <c r="AV2" s="0" t="n">
+      <c r="AV2">
         <v>595281</v>
       </c>
-      <c r="AW2" s="0" t="n">
+      <c r="AW2">
         <v>703719</v>
       </c>
-      <c r="AX2" s="0" t="n">
+      <c r="AX2">
         <v>518804</v>
       </c>
-      <c r="AY2" s="0" t="n">
+      <c r="AY2">
         <v>24035</v>
       </c>
-      <c r="AZ2" s="0" t="n">
+      <c r="AZ2">
         <v>182103</v>
       </c>
-      <c r="BA2" s="0" t="n">
+      <c r="BA2">
         <v>232331</v>
       </c>
-      <c r="BB2" s="0" t="n">
+      <c r="BB2">
         <v>208012</v>
       </c>
-      <c r="BC2" s="0" t="n">
+      <c r="BC2">
         <v>161752</v>
       </c>
-      <c r="BD2" s="0" t="n">
+      <c r="BD2">
         <v>50699</v>
       </c>
-      <c r="BE2" s="0" t="n">
-        <v>33043.2</v>
-      </c>
-      <c r="BF2" s="0" t="n">
+      <c r="BE2">
+        <v>33043.199999999997</v>
+      </c>
+      <c r="BF2">
         <v>114356</v>
       </c>
-      <c r="BG2" s="0" t="n">
+      <c r="BG2">
         <v>28194</v>
       </c>
-      <c r="BH2" s="0" t="n">
+      <c r="BH2">
         <v>219911</v>
       </c>
-      <c r="BI2" s="0" t="n">
+      <c r="BI2">
         <v>319207</v>
       </c>
-      <c r="BJ2" s="0" t="n">
+      <c r="BJ2">
         <v>151568</v>
       </c>
-      <c r="BK2" s="0" t="n">
+      <c r="BK2">
         <v>154488</v>
       </c>
-      <c r="BL2" s="0" t="n">
+      <c r="BL2">
         <v>151826</v>
       </c>
-      <c r="BM2" s="0" t="n">
+      <c r="BM2">
         <v>470630</v>
       </c>
-      <c r="BN2" s="0" t="n">
+      <c r="BN2">
         <v>402768</v>
       </c>
-      <c r="BO2" s="0" t="n">
+      <c r="BO2">
         <v>158983</v>
       </c>
-      <c r="BP2" s="0" t="n">
+      <c r="BP2">
         <v>256535</v>
       </c>
-      <c r="BQ2" s="0" t="n">
+      <c r="BQ2">
         <v>53413.9</v>
       </c>
-      <c r="BR2" s="0" t="n">
+      <c r="BR2">
         <v>80482.2</v>
       </c>
-      <c r="BS2" s="0" t="n">
+      <c r="BS2">
         <v>352752</v>
       </c>
-      <c r="BT2" s="0" t="n">
+      <c r="BT2">
         <v>193846</v>
       </c>
-      <c r="BU2" s="0" t="n">
+      <c r="BU2">
         <v>29722.5</v>
       </c>
-      <c r="BV2" s="0" t="n">
+      <c r="BV2">
         <v>67955.7</v>
       </c>
-      <c r="BW2" s="0" t="n">
+      <c r="BW2">
         <v>74989.5</v>
       </c>
-      <c r="BX2" s="0" t="n">
+      <c r="BX2">
         <v>134018</v>
       </c>
-      <c r="BY2" s="0" t="n">
+      <c r="BY2">
         <v>171740</v>
       </c>
-      <c r="BZ2" s="0" t="n">
+      <c r="BZ2">
         <v>538087</v>
       </c>
-      <c r="CA2" s="0" t="n">
+      <c r="CA2">
         <v>428613</v>
       </c>
-      <c r="CB2" s="0" t="n">
+      <c r="CB2">
         <v>309577</v>
       </c>
-      <c r="CC2" s="0" t="n">
+      <c r="CC2">
         <v>12761.9</v>
       </c>
-      <c r="CD2" s="0" t="n">
+      <c r="CD2">
         <v>201356</v>
       </c>
-      <c r="CE2" s="0" t="n">
+      <c r="CE2">
         <v>383771</v>
       </c>
-      <c r="CF2" s="0" t="n">
+      <c r="CF2">
         <v>7761.96</v>
       </c>
-      <c r="CG2" s="0" t="n">
+      <c r="CG2">
         <v>177744</v>
       </c>
-      <c r="CH2" s="0" t="n">
+      <c r="CH2">
         <v>444568</v>
       </c>
-      <c r="CI2" s="0" t="n">
+      <c r="CI2">
         <v>5938.5</v>
       </c>
-      <c r="CJ2" s="0" t="n">
+      <c r="CJ2">
         <v>162987</v>
       </c>
-      <c r="CK2" s="0" t="n">
+      <c r="CK2">
         <v>940561</v>
       </c>
-      <c r="CL2" s="0" t="n">
+      <c r="CL2">
         <v>337932</v>
       </c>
-      <c r="CM2" s="0" t="n">
+      <c r="CM2">
         <v>49973.2</v>
       </c>
-      <c r="CN2" s="0" t="n">
+      <c r="CN2">
         <v>775651</v>
       </c>
-      <c r="CO2" s="0" t="n">
+      <c r="CO2">
         <v>171003</v>
       </c>
-      <c r="CP2" s="0" t="n">
+      <c r="CP2">
         <v>596564</v>
       </c>
-      <c r="CQ2" s="0" t="n">
+      <c r="CQ2">
         <v>589787</v>
       </c>
-      <c r="CR2" s="0" t="n">
+      <c r="CR2">
         <v>21498.9</v>
       </c>
-      <c r="CS2" s="0" t="n">
+      <c r="CS2">
         <v>629299</v>
       </c>
-      <c r="CT2" s="0" t="n">
+      <c r="CT2">
         <v>628606</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>178844</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>60380.6</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3">
         <v>178556</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>219565</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>224214</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3">
         <v>53983.9</v>
       </c>
-      <c r="H3" s="0" t="n">
-        <v>8310.28</v>
-      </c>
-      <c r="I3" s="0" t="n">
+      <c r="H3">
+        <v>8310.2800000000007</v>
+      </c>
+      <c r="I3">
         <v>45408.1</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3">
         <v>229514</v>
       </c>
-      <c r="K3" s="0" t="n">
-        <v>18915.9</v>
-      </c>
-      <c r="L3" s="0" t="n">
+      <c r="K3">
+        <v>18915.900000000001</v>
+      </c>
+      <c r="L3">
         <v>14157.1</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3">
         <v>53299.3</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="N3">
         <v>2673.12</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="O3">
         <v>46319.9</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="P3">
         <v>59951.3</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="Q3">
         <v>30330.2</v>
       </c>
-      <c r="R3" s="0" t="n">
+      <c r="R3">
         <v>10696.2</v>
       </c>
-      <c r="S3" s="0" t="n">
+      <c r="S3">
         <v>15667.8</v>
       </c>
-      <c r="T3" s="0" t="n">
+      <c r="T3">
         <v>29281.1</v>
       </c>
-      <c r="U3" s="0" t="n">
-        <v>79972.1</v>
-      </c>
-      <c r="V3" s="0" t="n">
-        <v>72621.4</v>
-      </c>
-      <c r="W3" s="0" t="n">
+      <c r="U3">
+        <v>79972.100000000006</v>
+      </c>
+      <c r="V3">
+        <v>72621.399999999994</v>
+      </c>
+      <c r="W3">
         <v>98617.1</v>
       </c>
-      <c r="X3" s="0" t="n">
-        <v>24883.2</v>
-      </c>
-      <c r="Y3" s="0" t="n">
+      <c r="X3">
+        <v>24883.200000000001</v>
+      </c>
+      <c r="Y3">
         <v>99994.4</v>
       </c>
-      <c r="Z3" s="0" t="n">
+      <c r="Z3">
         <v>42863.9</v>
       </c>
-      <c r="AA3" s="0" t="n">
+      <c r="AA3">
         <v>11151.4</v>
       </c>
-      <c r="AB3" s="0" t="n">
+      <c r="AB3">
         <v>40106.5</v>
       </c>
-      <c r="AC3" s="0" t="n">
+      <c r="AC3">
         <v>41375</v>
       </c>
-      <c r="AD3" s="0" t="n">
+      <c r="AD3">
         <v>56930.1</v>
       </c>
-      <c r="AE3" s="0" t="n">
+      <c r="AE3">
         <v>133171</v>
       </c>
-      <c r="AF3" s="0" t="n">
+      <c r="AF3">
         <v>188500</v>
       </c>
-      <c r="AG3" s="0" t="n">
+      <c r="AG3">
         <v>80590</v>
       </c>
-      <c r="AH3" s="0" t="n">
+      <c r="AH3">
         <v>43940.2</v>
       </c>
-      <c r="AI3" s="0" t="n">
-        <v>58085.6</v>
-      </c>
-      <c r="AJ3" s="0" t="n">
-        <v>19458.6</v>
-      </c>
-      <c r="AK3" s="0" t="n">
+      <c r="AI3">
+        <v>58085.599999999999</v>
+      </c>
+      <c r="AJ3">
+        <v>19458.599999999999</v>
+      </c>
+      <c r="AK3">
         <v>134013</v>
       </c>
-      <c r="AL3" s="0" t="n">
+      <c r="AL3">
         <v>97098.4</v>
       </c>
-      <c r="AM3" s="0" t="n">
+      <c r="AM3">
         <v>13047.8</v>
       </c>
-      <c r="AN3" s="0" t="n">
+      <c r="AN3">
         <v>87924.2</v>
       </c>
-      <c r="AO3" s="0" t="n">
+      <c r="AO3">
         <v>272047</v>
       </c>
-      <c r="AP3" s="0" t="n">
+      <c r="AP3">
         <v>924797</v>
       </c>
-      <c r="AQ3" s="0" t="n">
+      <c r="AQ3">
         <v>201073</v>
       </c>
-      <c r="AR3" s="0" t="n">
-        <v>19638.6</v>
-      </c>
-      <c r="AS3" s="0" t="n">
-        <v>61362.4</v>
-      </c>
-      <c r="AT3" s="0" t="n">
+      <c r="AR3">
+        <v>19638.599999999999</v>
+      </c>
+      <c r="AS3">
+        <v>61362.400000000001</v>
+      </c>
+      <c r="AT3">
         <v>718991</v>
       </c>
-      <c r="AU3" s="0" t="n">
+      <c r="AU3">
         <v>27032.9</v>
       </c>
-      <c r="AV3" s="0" t="n">
+      <c r="AV3">
         <v>612277</v>
       </c>
-      <c r="AW3" s="0" t="n">
+      <c r="AW3">
         <v>715028</v>
       </c>
-      <c r="AX3" s="0" t="n">
+      <c r="AX3">
         <v>538405</v>
       </c>
-      <c r="AY3" s="0" t="n">
+      <c r="AY3">
         <v>28135.9</v>
       </c>
-      <c r="AZ3" s="0" t="n">
+      <c r="AZ3">
         <v>185910</v>
       </c>
-      <c r="BA3" s="0" t="n">
+      <c r="BA3">
         <v>233541</v>
       </c>
-      <c r="BB3" s="0" t="n">
+      <c r="BB3">
         <v>209512</v>
       </c>
-      <c r="BC3" s="0" t="n">
+      <c r="BC3">
         <v>165945</v>
       </c>
-      <c r="BD3" s="0" t="n">
+      <c r="BD3">
         <v>54731.4</v>
       </c>
-      <c r="BE3" s="0" t="n">
+      <c r="BE3">
         <v>36890.1</v>
       </c>
-      <c r="BF3" s="0" t="n">
+      <c r="BF3">
         <v>120666</v>
       </c>
-      <c r="BG3" s="0" t="n">
+      <c r="BG3">
         <v>31892.6</v>
       </c>
-      <c r="BH3" s="0" t="n">
+      <c r="BH3">
         <v>231221</v>
       </c>
-      <c r="BI3" s="0" t="n">
+      <c r="BI3">
         <v>327007</v>
       </c>
-      <c r="BJ3" s="0" t="n">
+      <c r="BJ3">
         <v>158782</v>
       </c>
-      <c r="BK3" s="0" t="n">
+      <c r="BK3">
         <v>166840</v>
       </c>
-      <c r="BL3" s="0" t="n">
+      <c r="BL3">
         <v>163590</v>
       </c>
-      <c r="BM3" s="0" t="n">
+      <c r="BM3">
         <v>472546</v>
       </c>
-      <c r="BN3" s="0" t="n">
+      <c r="BN3">
         <v>407863</v>
       </c>
-      <c r="BO3" s="0" t="n">
+      <c r="BO3">
         <v>166855</v>
       </c>
-      <c r="BP3" s="0" t="n">
+      <c r="BP3">
         <v>266492</v>
       </c>
-      <c r="BQ3" s="0" t="n">
+      <c r="BQ3">
         <v>61445.2</v>
       </c>
-      <c r="BR3" s="0" t="n">
+      <c r="BR3">
         <v>89788.6</v>
       </c>
-      <c r="BS3" s="0" t="n">
+      <c r="BS3">
         <v>364469</v>
       </c>
-      <c r="BT3" s="0" t="n">
+      <c r="BT3">
         <v>203763</v>
       </c>
-      <c r="BU3" s="0" t="n">
+      <c r="BU3">
         <v>35022.6</v>
       </c>
-      <c r="BV3" s="0" t="n">
+      <c r="BV3">
         <v>76001.5</v>
       </c>
-      <c r="BW3" s="0" t="n">
+      <c r="BW3">
         <v>86049.7</v>
       </c>
-      <c r="BX3" s="0" t="n">
+      <c r="BX3">
         <v>151623</v>
       </c>
-      <c r="BY3" s="0" t="n">
+      <c r="BY3">
         <v>183623</v>
       </c>
-      <c r="BZ3" s="0" t="n">
+      <c r="BZ3">
         <v>549852</v>
       </c>
-      <c r="CA3" s="0" t="n">
+      <c r="CA3">
         <v>445974</v>
       </c>
-      <c r="CB3" s="0" t="n">
+      <c r="CB3">
         <v>316745</v>
       </c>
-      <c r="CC3" s="0" t="n">
+      <c r="CC3">
         <v>15733.3</v>
       </c>
-      <c r="CD3" s="0" t="n">
+      <c r="CD3">
         <v>211168</v>
       </c>
-      <c r="CE3" s="0" t="n">
+      <c r="CE3">
         <v>392550</v>
       </c>
-      <c r="CF3" s="0" t="n">
+      <c r="CF3">
         <v>9473.52</v>
       </c>
-      <c r="CG3" s="0" t="n">
+      <c r="CG3">
         <v>191488</v>
       </c>
-      <c r="CH3" s="0" t="n">
+      <c r="CH3">
         <v>450624</v>
       </c>
-      <c r="CI3" s="0" t="n">
+      <c r="CI3">
         <v>6696.06</v>
       </c>
-      <c r="CJ3" s="0" t="n">
+      <c r="CJ3">
         <v>172614</v>
       </c>
-      <c r="CK3" s="0" t="n">
+      <c r="CK3">
         <v>950106</v>
       </c>
-      <c r="CL3" s="0" t="n">
+      <c r="CL3">
         <v>349170</v>
       </c>
-      <c r="CM3" s="0" t="n">
+      <c r="CM3">
         <v>57478.7</v>
       </c>
-      <c r="CN3" s="0" t="n">
+      <c r="CN3">
         <v>790614</v>
       </c>
-      <c r="CO3" s="0" t="n">
+      <c r="CO3">
         <v>186894</v>
       </c>
-      <c r="CP3" s="0" t="n">
+      <c r="CP3">
         <v>613723</v>
       </c>
-      <c r="CQ3" s="0" t="n">
+      <c r="CQ3">
         <v>616846</v>
       </c>
-      <c r="CR3" s="0" t="n">
+      <c r="CR3">
         <v>27039.4</v>
       </c>
-      <c r="CS3" s="0" t="n">
+      <c r="CS3">
         <v>650172</v>
       </c>
-      <c r="CT3" s="0" t="n">
+      <c r="CT3">
         <v>646799</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>181908</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>64105.8</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>179835</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>220075</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>224992</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4">
         <v>55989.2</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4">
         <v>8955.36</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4">
         <v>46891.9</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4">
         <v>230432</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4">
         <v>19495.8</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4">
         <v>14772.8</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4">
         <v>53626.2</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="N4">
         <v>2982.94</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="O4">
         <v>46654.1</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="P4">
         <v>60094.8</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="Q4">
         <v>30872.1</v>
       </c>
-      <c r="R4" s="0" t="n">
+      <c r="R4">
         <v>11175</v>
       </c>
-      <c r="S4" s="0" t="n">
+      <c r="S4">
         <v>16533.7</v>
       </c>
-      <c r="T4" s="0" t="n">
-        <v>29982.8</v>
-      </c>
-      <c r="U4" s="0" t="n">
+      <c r="T4">
+        <v>29982.799999999999</v>
+      </c>
+      <c r="U4">
         <v>80775.3</v>
       </c>
-      <c r="V4" s="0" t="n">
+      <c r="V4">
         <v>73958.2</v>
       </c>
-      <c r="W4" s="0" t="n">
+      <c r="W4">
         <v>99523.1</v>
       </c>
-      <c r="X4" s="0" t="n">
+      <c r="X4">
         <v>25804</v>
       </c>
-      <c r="Y4" s="0" t="n">
+      <c r="Y4">
         <v>100625</v>
       </c>
-      <c r="Z4" s="0" t="n">
+      <c r="Z4">
         <v>44010</v>
       </c>
-      <c r="AA4" s="0" t="n">
+      <c r="AA4">
         <v>11879.2</v>
       </c>
-      <c r="AB4" s="0" t="n">
-        <v>41636.3</v>
-      </c>
-      <c r="AC4" s="0" t="n">
+      <c r="AB4">
+        <v>41636.300000000003</v>
+      </c>
+      <c r="AC4">
         <v>43745.5</v>
       </c>
-      <c r="AD4" s="0" t="n">
+      <c r="AD4">
         <v>58102.8</v>
       </c>
-      <c r="AE4" s="0" t="n">
+      <c r="AE4">
         <v>134383</v>
       </c>
-      <c r="AF4" s="0" t="n">
+      <c r="AF4">
         <v>188529</v>
       </c>
-      <c r="AG4" s="0" t="n">
+      <c r="AG4">
         <v>81870.2</v>
       </c>
-      <c r="AH4" s="0" t="n">
+      <c r="AH4">
         <v>45751.7</v>
       </c>
-      <c r="AI4" s="0" t="n">
+      <c r="AI4">
         <v>60312.2</v>
       </c>
-      <c r="AJ4" s="0" t="n">
+      <c r="AJ4">
         <v>20763.2</v>
       </c>
-      <c r="AK4" s="0" t="n">
+      <c r="AK4">
         <v>135424</v>
       </c>
-      <c r="AL4" s="0" t="n">
+      <c r="AL4">
         <v>98818.8</v>
       </c>
-      <c r="AM4" s="0" t="n">
+      <c r="AM4">
         <v>13899.8</v>
       </c>
-      <c r="AN4" s="0" t="n">
+      <c r="AN4">
         <v>90246.6</v>
       </c>
-      <c r="AO4" s="0" t="n">
+      <c r="AO4">
         <v>281000</v>
       </c>
-      <c r="AP4" s="0" t="n">
+      <c r="AP4">
         <v>926973</v>
       </c>
-      <c r="AQ4" s="0" t="n">
+      <c r="AQ4">
         <v>211698</v>
       </c>
-      <c r="AR4" s="0" t="n">
+      <c r="AR4">
         <v>21171.5</v>
       </c>
-      <c r="AS4" s="0" t="n">
-        <v>65975.1</v>
-      </c>
-      <c r="AT4" s="0" t="n">
+      <c r="AS4">
+        <v>65975.100000000006</v>
+      </c>
+      <c r="AT4">
         <v>724469</v>
       </c>
-      <c r="AU4" s="0" t="n">
+      <c r="AU4">
         <v>29144.2</v>
       </c>
-      <c r="AV4" s="0" t="n">
+      <c r="AV4">
         <v>624246</v>
       </c>
-      <c r="AW4" s="0" t="n">
+      <c r="AW4">
         <v>723392</v>
       </c>
-      <c r="AX4" s="0" t="n">
+      <c r="AX4">
         <v>552527</v>
       </c>
-      <c r="AY4" s="0" t="n">
-        <v>30051.6</v>
-      </c>
-      <c r="AZ4" s="0" t="n">
+      <c r="AY4">
+        <v>30051.599999999999</v>
+      </c>
+      <c r="AZ4">
         <v>187255</v>
       </c>
-      <c r="BA4" s="0" t="n">
+      <c r="BA4">
         <v>234368</v>
       </c>
-      <c r="BB4" s="0" t="n">
+      <c r="BB4">
         <v>210589</v>
       </c>
-      <c r="BC4" s="0" t="n">
+      <c r="BC4">
         <v>168827</v>
       </c>
-      <c r="BD4" s="0" t="n">
+      <c r="BD4">
         <v>56365.7</v>
       </c>
-      <c r="BE4" s="0" t="n">
-        <v>39519.8</v>
-      </c>
-      <c r="BF4" s="0" t="n">
+      <c r="BE4">
+        <v>39519.800000000003</v>
+      </c>
+      <c r="BF4">
         <v>123511</v>
       </c>
-      <c r="BG4" s="0" t="n">
-        <v>33919.7</v>
-      </c>
-      <c r="BH4" s="0" t="n">
+      <c r="BG4">
+        <v>33919.699999999997</v>
+      </c>
+      <c r="BH4">
         <v>236533</v>
       </c>
-      <c r="BI4" s="0" t="n">
+      <c r="BI4">
         <v>331222</v>
       </c>
-      <c r="BJ4" s="0" t="n">
+      <c r="BJ4">
         <v>163586</v>
       </c>
-      <c r="BK4" s="0" t="n">
+      <c r="BK4">
         <v>170023</v>
       </c>
-      <c r="BL4" s="0" t="n">
+      <c r="BL4">
         <v>170245</v>
       </c>
-      <c r="BM4" s="0" t="n">
+      <c r="BM4">
         <v>473353</v>
       </c>
-      <c r="BN4" s="0" t="n">
+      <c r="BN4">
         <v>410712</v>
       </c>
-      <c r="BO4" s="0" t="n">
+      <c r="BO4">
         <v>172054</v>
       </c>
-      <c r="BP4" s="0" t="n">
+      <c r="BP4">
         <v>270112</v>
       </c>
-      <c r="BQ4" s="0" t="n">
+      <c r="BQ4">
         <v>65409.3</v>
       </c>
-      <c r="BR4" s="0" t="n">
+      <c r="BR4">
         <v>95134</v>
       </c>
-      <c r="BS4" s="0" t="n">
+      <c r="BS4">
         <v>374174</v>
       </c>
-      <c r="BT4" s="0" t="n">
+      <c r="BT4">
         <v>211219</v>
       </c>
-      <c r="BU4" s="0" t="n">
-        <v>37370.7</v>
-      </c>
-      <c r="BV4" s="0" t="n">
-        <v>79031.9</v>
-      </c>
-      <c r="BW4" s="0" t="n">
+      <c r="BU4">
+        <v>37370.699999999997</v>
+      </c>
+      <c r="BV4">
+        <v>79031.899999999994</v>
+      </c>
+      <c r="BW4">
         <v>89162.1</v>
       </c>
-      <c r="BX4" s="0" t="n">
+      <c r="BX4">
         <v>156934</v>
       </c>
-      <c r="BY4" s="0" t="n">
+      <c r="BY4">
         <v>195037</v>
       </c>
-      <c r="BZ4" s="0" t="n">
+      <c r="BZ4">
         <v>554773</v>
       </c>
-      <c r="CA4" s="0" t="n">
+      <c r="CA4">
         <v>452205</v>
       </c>
-      <c r="CB4" s="0" t="n">
+      <c r="CB4">
         <v>322643</v>
       </c>
-      <c r="CC4" s="0" t="n">
+      <c r="CC4">
         <v>17244.2</v>
       </c>
-      <c r="CD4" s="0" t="n">
+      <c r="CD4">
         <v>215978</v>
       </c>
-      <c r="CE4" s="0" t="n">
+      <c r="CE4">
         <v>396669</v>
       </c>
-      <c r="CF4" s="0" t="n">
+      <c r="CF4">
         <v>10691.2</v>
       </c>
-      <c r="CG4" s="0" t="n">
+      <c r="CG4">
         <v>195863</v>
       </c>
-      <c r="CH4" s="0" t="n">
+      <c r="CH4">
         <v>453548</v>
       </c>
-      <c r="CI4" s="0" t="n">
+      <c r="CI4">
         <v>7453.28</v>
       </c>
-      <c r="CJ4" s="0" t="n">
+      <c r="CJ4">
         <v>179393</v>
       </c>
-      <c r="CK4" s="0" t="n">
+      <c r="CK4">
         <v>954564</v>
       </c>
-      <c r="CL4" s="0" t="n">
+      <c r="CL4">
         <v>363585</v>
       </c>
-      <c r="CM4" s="0" t="n">
+      <c r="CM4">
         <v>61733.2</v>
       </c>
-      <c r="CN4" s="0" t="n">
+      <c r="CN4">
         <v>798648</v>
       </c>
-      <c r="CO4" s="0" t="n">
+      <c r="CO4">
         <v>194195</v>
       </c>
-      <c r="CP4" s="0" t="n">
+      <c r="CP4">
         <v>622786</v>
       </c>
-      <c r="CQ4" s="0" t="n">
+      <c r="CQ4">
         <v>628449</v>
       </c>
-      <c r="CR4" s="0" t="n">
+      <c r="CR4">
         <v>28693.7</v>
       </c>
-      <c r="CS4" s="0" t="n">
+      <c r="CS4">
         <v>658816</v>
       </c>
-      <c r="CT4" s="0" t="n">
+      <c r="CT4">
         <v>655753</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>5</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>184350</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>68252.6</v>
-      </c>
-      <c r="D5" s="0" t="n">
+      <c r="C5">
+        <v>68252.600000000006</v>
+      </c>
+      <c r="D5">
         <v>182185</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>220706</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>225623</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5">
         <v>59729.1</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5">
         <v>9750.02</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5">
         <v>50727.8</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5">
         <v>230834</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5">
         <v>20799.7</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5">
         <v>15714.7</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5">
         <v>54056.6</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="N5">
         <v>3292.04</v>
       </c>
-      <c r="O5" s="0" t="n">
-        <v>47454.4</v>
-      </c>
-      <c r="P5" s="0" t="n">
+      <c r="O5">
+        <v>47454.400000000001</v>
+      </c>
+      <c r="P5">
         <v>60375.3</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="Q5">
         <v>31812.5</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="R5">
         <v>12336.5</v>
       </c>
-      <c r="S5" s="0" t="n">
+      <c r="S5">
         <v>17396.2</v>
       </c>
-      <c r="T5" s="0" t="n">
+      <c r="T5">
         <v>30836.1</v>
       </c>
-      <c r="U5" s="0" t="n">
-        <v>82842.4</v>
-      </c>
-      <c r="V5" s="0" t="n">
-        <v>75813.9</v>
-      </c>
-      <c r="W5" s="0" t="n">
+      <c r="U5">
+        <v>82842.399999999994</v>
+      </c>
+      <c r="V5">
+        <v>75813.899999999994</v>
+      </c>
+      <c r="W5">
         <v>100658</v>
       </c>
-      <c r="X5" s="0" t="n">
+      <c r="X5">
         <v>28324.6</v>
       </c>
-      <c r="Y5" s="0" t="n">
+      <c r="Y5">
         <v>101353</v>
       </c>
-      <c r="Z5" s="0" t="n">
+      <c r="Z5">
         <v>46886.6</v>
       </c>
-      <c r="AA5" s="0" t="n">
+      <c r="AA5">
         <v>13077.1</v>
       </c>
-      <c r="AB5" s="0" t="n">
+      <c r="AB5">
         <v>44003.7</v>
       </c>
-      <c r="AC5" s="0" t="n">
+      <c r="AC5">
         <v>45969.5</v>
       </c>
-      <c r="AD5" s="0" t="n">
+      <c r="AD5">
         <v>60098.9</v>
       </c>
-      <c r="AE5" s="0" t="n">
+      <c r="AE5">
         <v>136126</v>
       </c>
-      <c r="AF5" s="0" t="n">
+      <c r="AF5">
         <v>188581</v>
       </c>
-      <c r="AG5" s="0" t="n">
+      <c r="AG5">
         <v>84657.7</v>
       </c>
-      <c r="AH5" s="0" t="n">
+      <c r="AH5">
         <v>48907.3</v>
       </c>
-      <c r="AI5" s="0" t="n">
+      <c r="AI5">
         <v>63532.3</v>
       </c>
-      <c r="AJ5" s="0" t="n">
+      <c r="AJ5">
         <v>22929.1</v>
       </c>
-      <c r="AK5" s="0" t="n">
+      <c r="AK5">
         <v>137452</v>
       </c>
-      <c r="AL5" s="0" t="n">
+      <c r="AL5">
         <v>101251</v>
       </c>
-      <c r="AM5" s="0" t="n">
+      <c r="AM5">
         <v>15879</v>
       </c>
-      <c r="AN5" s="0" t="n">
+      <c r="AN5">
         <v>93397.6</v>
       </c>
-      <c r="AO5" s="0" t="n">
+      <c r="AO5">
         <v>298225</v>
       </c>
-      <c r="AP5" s="0" t="n">
+      <c r="AP5">
         <v>929420</v>
       </c>
-      <c r="AQ5" s="0" t="n">
+      <c r="AQ5">
         <v>226926</v>
       </c>
-      <c r="AR5" s="0" t="n">
+      <c r="AR5">
         <v>25389.8</v>
       </c>
-      <c r="AS5" s="0" t="n">
-        <v>74533.1</v>
-      </c>
-      <c r="AT5" s="0" t="n">
+      <c r="AS5">
+        <v>74533.100000000006</v>
+      </c>
+      <c r="AT5">
         <v>736287</v>
       </c>
-      <c r="AU5" s="0" t="n">
-        <v>33921.3</v>
-      </c>
-      <c r="AV5" s="0" t="n">
+      <c r="AU5">
+        <v>33921.300000000003</v>
+      </c>
+      <c r="AV5">
         <v>636119</v>
       </c>
-      <c r="AW5" s="0" t="n">
+      <c r="AW5">
         <v>735777</v>
       </c>
-      <c r="AX5" s="0" t="n">
+      <c r="AX5">
         <v>567031</v>
       </c>
-      <c r="AY5" s="0" t="n">
+      <c r="AY5">
         <v>33113.5</v>
       </c>
-      <c r="AZ5" s="0" t="n">
+      <c r="AZ5">
         <v>190434</v>
       </c>
-      <c r="BA5" s="0" t="n">
+      <c r="BA5">
         <v>235075</v>
       </c>
-      <c r="BB5" s="0" t="n">
+      <c r="BB5">
         <v>212703</v>
       </c>
-      <c r="BC5" s="0" t="n">
+      <c r="BC5">
         <v>171542</v>
       </c>
-      <c r="BD5" s="0" t="n">
+      <c r="BD5">
         <v>59787.3</v>
       </c>
-      <c r="BE5" s="0" t="n">
+      <c r="BE5">
         <v>42857.2</v>
       </c>
-      <c r="BF5" s="0" t="n">
+      <c r="BF5">
         <v>127815</v>
       </c>
-      <c r="BG5" s="0" t="n">
+      <c r="BG5">
         <v>36805.4</v>
       </c>
-      <c r="BH5" s="0" t="n">
+      <c r="BH5">
         <v>243643</v>
       </c>
-      <c r="BI5" s="0" t="n">
+      <c r="BI5">
         <v>337767</v>
       </c>
-      <c r="BJ5" s="0" t="n">
+      <c r="BJ5">
         <v>169202</v>
       </c>
-      <c r="BK5" s="0" t="n">
+      <c r="BK5">
         <v>179082</v>
       </c>
-      <c r="BL5" s="0" t="n">
+      <c r="BL5">
         <v>179573</v>
       </c>
-      <c r="BM5" s="0" t="n">
+      <c r="BM5">
         <v>474649</v>
       </c>
-      <c r="BN5" s="0" t="n">
+      <c r="BN5">
         <v>413559</v>
       </c>
-      <c r="BO5" s="0" t="n">
+      <c r="BO5">
         <v>179351</v>
       </c>
-      <c r="BP5" s="0" t="n">
+      <c r="BP5">
         <v>278606</v>
       </c>
-      <c r="BQ5" s="0" t="n">
-        <v>72832.9</v>
-      </c>
-      <c r="BR5" s="0" t="n">
+      <c r="BQ5">
+        <v>72832.899999999994</v>
+      </c>
+      <c r="BR5">
         <v>103150</v>
       </c>
-      <c r="BS5" s="0" t="n">
+      <c r="BS5">
         <v>385616</v>
       </c>
-      <c r="BT5" s="0" t="n">
+      <c r="BT5">
         <v>221459</v>
       </c>
-      <c r="BU5" s="0" t="n">
+      <c r="BU5">
         <v>43626.9</v>
       </c>
-      <c r="BV5" s="0" t="n">
+      <c r="BV5">
         <v>87428.6</v>
       </c>
-      <c r="BW5" s="0" t="n">
+      <c r="BW5">
         <v>98058.9</v>
       </c>
-      <c r="BX5" s="0" t="n">
+      <c r="BX5">
         <v>172389</v>
       </c>
-      <c r="BY5" s="0" t="n">
+      <c r="BY5">
         <v>207368</v>
       </c>
-      <c r="BZ5" s="0" t="n">
+      <c r="BZ5">
         <v>563423</v>
       </c>
-      <c r="CA5" s="0" t="n">
+      <c r="CA5">
         <v>464761</v>
       </c>
-      <c r="CB5" s="0" t="n">
+      <c r="CB5">
         <v>330411</v>
       </c>
-      <c r="CC5" s="0" t="n">
+      <c r="CC5">
         <v>20178.5</v>
       </c>
-      <c r="CD5" s="0" t="n">
+      <c r="CD5">
         <v>223646</v>
       </c>
-      <c r="CE5" s="0" t="n">
+      <c r="CE5">
         <v>404544</v>
       </c>
-      <c r="CF5" s="0" t="n">
+      <c r="CF5">
         <v>12099.5</v>
       </c>
-      <c r="CG5" s="0" t="n">
+      <c r="CG5">
         <v>206252</v>
       </c>
-      <c r="CH5" s="0" t="n">
+      <c r="CH5">
         <v>458896</v>
       </c>
-      <c r="CI5" s="0" t="n">
-        <v>8235.54</v>
-      </c>
-      <c r="CJ5" s="0" t="n">
+      <c r="CI5">
+        <v>8235.5400000000009</v>
+      </c>
+      <c r="CJ5">
         <v>188494</v>
       </c>
-      <c r="CK5" s="0" t="n">
+      <c r="CK5">
         <v>960650</v>
       </c>
-      <c r="CL5" s="0" t="n">
+      <c r="CL5">
         <v>384099</v>
       </c>
-      <c r="CM5" s="0" t="n">
-        <v>69856.9</v>
-      </c>
-      <c r="CN5" s="0" t="n">
+      <c r="CM5">
+        <v>69856.899999999994</v>
+      </c>
+      <c r="CN5">
         <v>809179</v>
       </c>
-      <c r="CO5" s="0" t="n">
+      <c r="CO5">
         <v>210676</v>
       </c>
-      <c r="CP5" s="0" t="n">
+      <c r="CP5">
         <v>636546</v>
       </c>
-      <c r="CQ5" s="0" t="n">
+      <c r="CQ5">
         <v>646266</v>
       </c>
-      <c r="CR5" s="0" t="n">
-        <v>33084.3</v>
-      </c>
-      <c r="CS5" s="0" t="n">
+      <c r="CR5">
+        <v>33084.300000000003</v>
+      </c>
+      <c r="CS5">
         <v>672233</v>
       </c>
-      <c r="CT5" s="0" t="n">
+      <c r="CT5">
         <v>672408</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>187925</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>74961.2</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6">
         <v>184890</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>221645</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>226878</v>
       </c>
-      <c r="G6" s="0" t="n">
-        <v>66903.6</v>
-      </c>
-      <c r="H6" s="0" t="n">
+      <c r="G6">
+        <v>66903.600000000006</v>
+      </c>
+      <c r="H6">
         <v>10063.6</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6">
         <v>56152.2</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6">
         <v>231579</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6">
         <v>22132.7</v>
       </c>
-      <c r="L6" s="0" t="n">
-        <v>17022.6</v>
-      </c>
-      <c r="M6" s="0" t="n">
+      <c r="L6">
+        <v>17022.599999999999</v>
+      </c>
+      <c r="M6">
         <v>54861.5</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="N6">
         <v>3582.84</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="O6">
         <v>48265.4</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="P6">
         <v>60800.2</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="Q6">
         <v>33529.1</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="R6">
         <v>13654.2</v>
       </c>
-      <c r="S6" s="0" t="n">
+      <c r="S6">
         <v>18809.3</v>
       </c>
-      <c r="T6" s="0" t="n">
+      <c r="T6">
         <v>32147.8</v>
       </c>
-      <c r="U6" s="0" t="n">
-        <v>84707.2</v>
-      </c>
-      <c r="V6" s="0" t="n">
+      <c r="U6">
+        <v>84707.199999999997</v>
+      </c>
+      <c r="V6">
         <v>78733.5</v>
       </c>
-      <c r="W6" s="0" t="n">
+      <c r="W6">
         <v>101993</v>
       </c>
-      <c r="X6" s="0" t="n">
+      <c r="X6">
         <v>31138.3</v>
       </c>
-      <c r="Y6" s="0" t="n">
+      <c r="Y6">
         <v>102759</v>
       </c>
-      <c r="Z6" s="0" t="n">
+      <c r="Z6">
         <v>50762.6</v>
       </c>
-      <c r="AA6" s="0" t="n">
+      <c r="AA6">
         <v>14693.7</v>
       </c>
-      <c r="AB6" s="0" t="n">
+      <c r="AB6">
         <v>47300.1</v>
       </c>
-      <c r="AC6" s="0" t="n">
+      <c r="AC6">
         <v>49142.7</v>
       </c>
-      <c r="AD6" s="0" t="n">
-        <v>63176.8</v>
-      </c>
-      <c r="AE6" s="0" t="n">
+      <c r="AD6">
+        <v>63176.800000000003</v>
+      </c>
+      <c r="AE6">
         <v>138461</v>
       </c>
-      <c r="AF6" s="0" t="n">
+      <c r="AF6">
         <v>188626</v>
       </c>
-      <c r="AG6" s="0" t="n">
+      <c r="AG6">
         <v>88553.9</v>
       </c>
-      <c r="AH6" s="0" t="n">
-        <v>54467.2</v>
-      </c>
-      <c r="AI6" s="0" t="n">
+      <c r="AH6">
+        <v>54467.199999999997</v>
+      </c>
+      <c r="AI6">
         <v>66936.3</v>
       </c>
-      <c r="AJ6" s="0" t="n">
-        <v>25765.2</v>
-      </c>
-      <c r="AK6" s="0" t="n">
+      <c r="AJ6">
+        <v>25765.200000000001</v>
+      </c>
+      <c r="AK6">
         <v>140428</v>
       </c>
-      <c r="AL6" s="0" t="n">
+      <c r="AL6">
         <v>104625</v>
       </c>
-      <c r="AM6" s="0" t="n">
+      <c r="AM6">
         <v>17907</v>
       </c>
-      <c r="AN6" s="0" t="n">
+      <c r="AN6">
         <v>97846.9</v>
       </c>
-      <c r="AO6" s="0" t="n">
+      <c r="AO6">
         <v>323682</v>
       </c>
-      <c r="AP6" s="0" t="n">
+      <c r="AP6">
         <v>932743</v>
       </c>
-      <c r="AQ6" s="0" t="n">
+      <c r="AQ6">
         <v>254188</v>
       </c>
-      <c r="AR6" s="0" t="n">
+      <c r="AR6">
         <v>27437.5</v>
       </c>
-      <c r="AS6" s="0" t="n">
+      <c r="AS6">
         <v>86925.1</v>
       </c>
-      <c r="AT6" s="0" t="n">
+      <c r="AT6">
         <v>752471</v>
       </c>
-      <c r="AU6" s="0" t="n">
-        <v>37993.6</v>
-      </c>
-      <c r="AV6" s="0" t="n">
+      <c r="AU6">
+        <v>37993.599999999999</v>
+      </c>
+      <c r="AV6">
         <v>655973</v>
       </c>
-      <c r="AW6" s="0" t="n">
+      <c r="AW6">
         <v>752645</v>
       </c>
-      <c r="AX6" s="0" t="n">
+      <c r="AX6">
         <v>587544</v>
       </c>
-      <c r="AY6" s="0" t="n">
-        <v>38081.7</v>
-      </c>
-      <c r="AZ6" s="0" t="n">
+      <c r="AY6">
+        <v>38081.699999999997</v>
+      </c>
+      <c r="AZ6">
         <v>193945</v>
       </c>
-      <c r="BA6" s="0" t="n">
+      <c r="BA6">
         <v>236436</v>
       </c>
-      <c r="BB6" s="0" t="n">
+      <c r="BB6">
         <v>215316</v>
       </c>
-      <c r="BC6" s="0" t="n">
+      <c r="BC6">
         <v>175873</v>
       </c>
-      <c r="BD6" s="0" t="n">
+      <c r="BD6">
         <v>65771.8</v>
       </c>
-      <c r="BE6" s="0" t="n">
+      <c r="BE6">
         <v>48303.8</v>
       </c>
-      <c r="BF6" s="0" t="n">
+      <c r="BF6">
         <v>133607</v>
       </c>
-      <c r="BG6" s="0" t="n">
+      <c r="BG6">
         <v>41268.9</v>
       </c>
-      <c r="BH6" s="0" t="n">
+      <c r="BH6">
         <v>255280</v>
       </c>
-      <c r="BI6" s="0" t="n">
+      <c r="BI6">
         <v>346814</v>
       </c>
-      <c r="BJ6" s="0" t="n">
+      <c r="BJ6">
         <v>182006</v>
       </c>
-      <c r="BK6" s="0" t="n">
+      <c r="BK6">
         <v>194187</v>
       </c>
-      <c r="BL6" s="0" t="n">
+      <c r="BL6">
         <v>195811</v>
       </c>
-      <c r="BM6" s="0" t="n">
+      <c r="BM6">
         <v>475998</v>
       </c>
-      <c r="BN6" s="0" t="n">
+      <c r="BN6">
         <v>417655</v>
       </c>
-      <c r="BO6" s="0" t="n">
+      <c r="BO6">
         <v>191036</v>
       </c>
-      <c r="BP6" s="0" t="n">
+      <c r="BP6">
         <v>289371</v>
       </c>
-      <c r="BQ6" s="0" t="n">
+      <c r="BQ6">
         <v>83475.8</v>
       </c>
-      <c r="BR6" s="0" t="n">
+      <c r="BR6">
         <v>115697</v>
       </c>
-      <c r="BS6" s="0" t="n">
+      <c r="BS6">
         <v>404085</v>
       </c>
-      <c r="BT6" s="0" t="n">
+      <c r="BT6">
         <v>237721</v>
       </c>
-      <c r="BU6" s="0" t="n">
+      <c r="BU6">
         <v>51891.1</v>
       </c>
-      <c r="BV6" s="0" t="n">
+      <c r="BV6">
         <v>99348.2</v>
       </c>
-      <c r="BW6" s="0" t="n">
+      <c r="BW6">
         <v>113353</v>
       </c>
-      <c r="BX6" s="0" t="n">
+      <c r="BX6">
         <v>189914</v>
       </c>
-      <c r="BY6" s="0" t="n">
+      <c r="BY6">
         <v>228626</v>
       </c>
-      <c r="BZ6" s="0" t="n">
+      <c r="BZ6">
         <v>575232</v>
       </c>
-      <c r="CA6" s="0" t="n">
+      <c r="CA6">
         <v>480262</v>
       </c>
-      <c r="CB6" s="0" t="n">
+      <c r="CB6">
         <v>343030</v>
       </c>
-      <c r="CC6" s="0" t="n">
+      <c r="CC6">
         <v>23999.5</v>
       </c>
-      <c r="CD6" s="0" t="n">
+      <c r="CD6">
         <v>236169</v>
       </c>
-      <c r="CE6" s="0" t="n">
+      <c r="CE6">
         <v>414596</v>
       </c>
-      <c r="CF6" s="0" t="n">
+      <c r="CF6">
         <v>13498.5</v>
       </c>
-      <c r="CG6" s="0" t="n">
+      <c r="CG6">
         <v>221021</v>
       </c>
-      <c r="CH6" s="0" t="n">
+      <c r="CH6">
         <v>465466</v>
       </c>
-      <c r="CI6" s="0" t="n">
+      <c r="CI6">
         <v>8835.08</v>
       </c>
-      <c r="CJ6" s="0" t="n">
+      <c r="CJ6">
         <v>202381</v>
       </c>
-      <c r="CK6" s="0" t="n">
+      <c r="CK6">
         <v>970051</v>
       </c>
-      <c r="CL6" s="0" t="n">
+      <c r="CL6">
         <v>412846</v>
       </c>
-      <c r="CM6" s="0" t="n">
+      <c r="CM6">
         <v>82317.8</v>
       </c>
-      <c r="CN6" s="0" t="n">
+      <c r="CN6">
         <v>825112</v>
       </c>
-      <c r="CO6" s="0" t="n">
+      <c r="CO6">
         <v>235215</v>
       </c>
-      <c r="CP6" s="0" t="n">
+      <c r="CP6">
         <v>657371</v>
       </c>
-      <c r="CQ6" s="0" t="n">
+      <c r="CQ6">
         <v>669610</v>
       </c>
-      <c r="CR6" s="0" t="n">
+      <c r="CR6">
         <v>38572.5</v>
       </c>
-      <c r="CS6" s="0" t="n">
+      <c r="CS6">
         <v>697831</v>
       </c>
-      <c r="CT6" s="0" t="n">
+      <c r="CT6">
         <v>697497</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>20</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>190118</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>80929.6</v>
-      </c>
-      <c r="D7" s="0" t="n">
+      <c r="C7">
+        <v>80929.600000000006</v>
+      </c>
+      <c r="D7">
         <v>186269</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>224985</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>228298</v>
       </c>
-      <c r="G7" s="0" t="n">
-        <v>74193.9</v>
-      </c>
-      <c r="H7" s="0" t="n">
+      <c r="G7">
+        <v>74193.899999999994</v>
+      </c>
+      <c r="H7">
         <v>10140.5</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7">
         <v>62264.4</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7">
         <v>234138</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7">
         <v>25246.7</v>
       </c>
-      <c r="L7" s="0" t="n">
-        <v>18141.1</v>
-      </c>
-      <c r="M7" s="0" t="n">
+      <c r="L7">
+        <v>18141.099999999999</v>
+      </c>
+      <c r="M7">
         <v>55348.1</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="N7">
         <v>3680.22</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="O7">
         <v>48699.4</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="P7">
         <v>61766.9</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="Q7">
         <v>36631.9</v>
       </c>
-      <c r="R7" s="0" t="n">
+      <c r="R7">
         <v>14328.8</v>
       </c>
-      <c r="S7" s="0" t="n">
-        <v>20107.6</v>
-      </c>
-      <c r="T7" s="0" t="n">
-        <v>34961.2</v>
-      </c>
-      <c r="U7" s="0" t="n">
+      <c r="S7">
+        <v>20107.599999999999</v>
+      </c>
+      <c r="T7">
+        <v>34961.199999999997</v>
+      </c>
+      <c r="U7">
         <v>86786.7</v>
       </c>
-      <c r="V7" s="0" t="n">
+      <c r="V7">
         <v>82725.8</v>
       </c>
-      <c r="W7" s="0" t="n">
+      <c r="W7">
         <v>102884</v>
       </c>
-      <c r="X7" s="0" t="n">
+      <c r="X7">
         <v>33497.9</v>
       </c>
-      <c r="Y7" s="0" t="n">
+      <c r="Y7">
         <v>103343</v>
       </c>
-      <c r="Z7" s="0" t="n">
+      <c r="Z7">
         <v>57632.6</v>
       </c>
-      <c r="AA7" s="0" t="n">
+      <c r="AA7">
         <v>15406.7</v>
       </c>
-      <c r="AB7" s="0" t="n">
+      <c r="AB7">
         <v>53866.8</v>
       </c>
-      <c r="AC7" s="0" t="n">
+      <c r="AC7">
         <v>55020.3</v>
       </c>
-      <c r="AD7" s="0" t="n">
-        <v>70699.9</v>
-      </c>
-      <c r="AE7" s="0" t="n">
+      <c r="AD7">
+        <v>70699.899999999994</v>
+      </c>
+      <c r="AE7">
         <v>140366</v>
       </c>
-      <c r="AF7" s="0" t="n">
+      <c r="AF7">
         <v>191180</v>
       </c>
-      <c r="AG7" s="0" t="n">
+      <c r="AG7">
         <v>101168</v>
       </c>
-      <c r="AH7" s="0" t="n">
+      <c r="AH7">
         <v>60876.9</v>
       </c>
-      <c r="AI7" s="0" t="n">
-        <v>74509.1</v>
-      </c>
-      <c r="AJ7" s="0" t="n">
+      <c r="AI7">
+        <v>74509.100000000006</v>
+      </c>
+      <c r="AJ7">
         <v>26928.7</v>
       </c>
-      <c r="AK7" s="0" t="n">
+      <c r="AK7">
         <v>141990</v>
       </c>
-      <c r="AL7" s="0" t="n">
+      <c r="AL7">
         <v>113307</v>
       </c>
-      <c r="AM7" s="0" t="n">
+      <c r="AM7">
         <v>18818.3</v>
       </c>
-      <c r="AN7" s="0" t="n">
+      <c r="AN7">
         <v>106962</v>
       </c>
-      <c r="AO7" s="0" t="n">
+      <c r="AO7">
         <v>350232</v>
       </c>
-      <c r="AP7" s="0" t="n">
+      <c r="AP7">
         <v>935469</v>
       </c>
-      <c r="AQ7" s="0" t="n">
+      <c r="AQ7">
         <v>270612</v>
       </c>
-      <c r="AR7" s="0" t="n">
-        <v>28711.6</v>
-      </c>
-      <c r="AS7" s="0" t="n">
+      <c r="AR7">
+        <v>28711.599999999999</v>
+      </c>
+      <c r="AS7">
         <v>93758.9</v>
       </c>
-      <c r="AT7" s="0" t="n">
+      <c r="AT7">
         <v>757972</v>
       </c>
-      <c r="AU7" s="0" t="n">
+      <c r="AU7">
         <v>39417.5</v>
       </c>
-      <c r="AV7" s="0" t="n">
+      <c r="AV7">
         <v>668115</v>
       </c>
-      <c r="AW7" s="0" t="n">
+      <c r="AW7">
         <v>758198</v>
       </c>
-      <c r="AX7" s="0" t="n">
+      <c r="AX7">
         <v>613227</v>
       </c>
-      <c r="AY7" s="0" t="n">
+      <c r="AY7">
         <v>40952.5</v>
       </c>
-      <c r="AZ7" s="0" t="n">
+      <c r="AZ7">
         <v>195936</v>
       </c>
-      <c r="BA7" s="0" t="n">
+      <c r="BA7">
         <v>237247</v>
       </c>
-      <c r="BB7" s="0" t="n">
+      <c r="BB7">
         <v>216534</v>
       </c>
-      <c r="BC7" s="0" t="n">
+      <c r="BC7">
         <v>178001</v>
       </c>
-      <c r="BD7" s="0" t="n">
+      <c r="BD7">
         <v>70979.8</v>
       </c>
-      <c r="BE7" s="0" t="n">
+      <c r="BE7">
         <v>51266.5</v>
       </c>
-      <c r="BF7" s="0" t="n">
+      <c r="BF7">
         <v>143349</v>
       </c>
-      <c r="BG7" s="0" t="n">
+      <c r="BG7">
         <v>43476.1</v>
       </c>
-      <c r="BH7" s="0" t="n">
+      <c r="BH7">
         <v>276091</v>
       </c>
-      <c r="BI7" s="0" t="n">
+      <c r="BI7">
         <v>354641</v>
       </c>
-      <c r="BJ7" s="0" t="n">
+      <c r="BJ7">
         <v>198320</v>
       </c>
-      <c r="BK7" s="0" t="n">
+      <c r="BK7">
         <v>211150</v>
       </c>
-      <c r="BL7" s="0" t="n">
+      <c r="BL7">
         <v>210627</v>
       </c>
-      <c r="BM7" s="0" t="n">
+      <c r="BM7">
         <v>477993</v>
       </c>
-      <c r="BN7" s="0" t="n">
+      <c r="BN7">
         <v>419456</v>
       </c>
-      <c r="BO7" s="0" t="n">
+      <c r="BO7">
         <v>207269</v>
       </c>
-      <c r="BP7" s="0" t="n">
+      <c r="BP7">
         <v>301534</v>
       </c>
-      <c r="BQ7" s="0" t="n">
+      <c r="BQ7">
         <v>89564.2</v>
       </c>
-      <c r="BR7" s="0" t="n">
+      <c r="BR7">
         <v>124822</v>
       </c>
-      <c r="BS7" s="0" t="n">
+      <c r="BS7">
         <v>435659</v>
       </c>
-      <c r="BT7" s="0" t="n">
+      <c r="BT7">
         <v>260637</v>
       </c>
-      <c r="BU7" s="0" t="n">
+      <c r="BU7">
         <v>57296.3</v>
       </c>
-      <c r="BV7" s="0" t="n">
+      <c r="BV7">
         <v>107123</v>
       </c>
-      <c r="BW7" s="0" t="n">
+      <c r="BW7">
         <v>121314</v>
       </c>
-      <c r="BX7" s="0" t="n">
+      <c r="BX7">
         <v>202687</v>
       </c>
-      <c r="BY7" s="0" t="n">
+      <c r="BY7">
         <v>243947</v>
       </c>
-      <c r="BZ7" s="0" t="n">
+      <c r="BZ7">
         <v>580750</v>
       </c>
-      <c r="CA7" s="0" t="n">
+      <c r="CA7">
         <v>495616</v>
       </c>
-      <c r="CB7" s="0" t="n">
+      <c r="CB7">
         <v>356208</v>
       </c>
-      <c r="CC7" s="0" t="n">
-        <v>26102.8</v>
-      </c>
-      <c r="CD7" s="0" t="n">
+      <c r="CC7">
+        <v>26102.799999999999</v>
+      </c>
+      <c r="CD7">
         <v>253381</v>
       </c>
-      <c r="CE7" s="0" t="n">
+      <c r="CE7">
         <v>420283</v>
       </c>
-      <c r="CF7" s="0" t="n">
+      <c r="CF7">
         <v>14342.9</v>
       </c>
-      <c r="CG7" s="0" t="n">
+      <c r="CG7">
         <v>236553</v>
       </c>
-      <c r="CH7" s="0" t="n">
+      <c r="CH7">
         <v>467923</v>
       </c>
-      <c r="CI7" s="0" t="n">
+      <c r="CI7">
         <v>9032.64</v>
       </c>
-      <c r="CJ7" s="0" t="n">
+      <c r="CJ7">
         <v>217155</v>
       </c>
-      <c r="CK7" s="0" t="n">
+      <c r="CK7">
         <v>973650</v>
       </c>
-      <c r="CL7" s="0" t="n">
+      <c r="CL7">
         <v>444272</v>
       </c>
-      <c r="CM7" s="0" t="n">
+      <c r="CM7">
         <v>89090.8</v>
       </c>
-      <c r="CN7" s="0" t="n">
+      <c r="CN7">
         <v>832122</v>
       </c>
-      <c r="CO7" s="0" t="n">
+      <c r="CO7">
         <v>248817</v>
       </c>
-      <c r="CP7" s="0" t="n">
+      <c r="CP7">
         <v>684767</v>
       </c>
-      <c r="CQ7" s="0" t="n">
+      <c r="CQ7">
         <v>692834</v>
       </c>
-      <c r="CR7" s="0" t="n">
-        <v>41164.3</v>
-      </c>
-      <c r="CS7" s="0" t="n">
+      <c r="CR7">
+        <v>41164.300000000003</v>
+      </c>
+      <c r="CS7">
         <v>713166</v>
       </c>
-      <c r="CT7" s="0" t="n">
+      <c r="CT7">
         <v>723837</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>30</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>191857</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>83296.9</v>
-      </c>
-      <c r="D8" s="0" t="n">
+      <c r="C8">
+        <v>83296.899999999994</v>
+      </c>
+      <c r="D8">
         <v>187359</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>225323</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8">
         <v>228571</v>
       </c>
-      <c r="G8" s="0" t="n">
-        <v>76608.6</v>
-      </c>
-      <c r="H8" s="0" t="n">
+      <c r="G8">
+        <v>76608.600000000006</v>
+      </c>
+      <c r="H8">
         <v>10155</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8">
         <v>63983</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8">
         <v>234454</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8">
         <v>25557.8</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L8">
         <v>18659.5</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M8">
         <v>55832.4</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="N8">
         <v>3711</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="O8">
         <v>49225.8</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="P8">
         <v>61869.8</v>
       </c>
-      <c r="Q8" s="0" t="n">
+      <c r="Q8">
         <v>37030</v>
       </c>
-      <c r="R8" s="0" t="n">
+      <c r="R8">
         <v>14666.6</v>
       </c>
-      <c r="S8" s="0" t="n">
-        <v>20798.9</v>
-      </c>
-      <c r="T8" s="0" t="n">
+      <c r="S8">
+        <v>20798.900000000001</v>
+      </c>
+      <c r="T8">
         <v>35461.4</v>
       </c>
-      <c r="U8" s="0" t="n">
+      <c r="U8">
         <v>87634.9</v>
       </c>
-      <c r="V8" s="0" t="n">
+      <c r="V8">
         <v>83924.1</v>
       </c>
-      <c r="W8" s="0" t="n">
+      <c r="W8">
         <v>103704</v>
       </c>
-      <c r="X8" s="0" t="n">
-        <v>34499.6</v>
-      </c>
-      <c r="Y8" s="0" t="n">
+      <c r="X8">
+        <v>34499.599999999999</v>
+      </c>
+      <c r="Y8">
         <v>104031</v>
       </c>
-      <c r="Z8" s="0" t="n">
+      <c r="Z8">
         <v>58624.5</v>
       </c>
-      <c r="AA8" s="0" t="n">
+      <c r="AA8">
         <v>15921.4</v>
       </c>
-      <c r="AB8" s="0" t="n">
+      <c r="AB8">
         <v>54778.1</v>
       </c>
-      <c r="AC8" s="0" t="n">
+      <c r="AC8">
         <v>55783.9</v>
       </c>
-      <c r="AD8" s="0" t="n">
-        <v>71643.2</v>
-      </c>
-      <c r="AE8" s="0" t="n">
+      <c r="AD8">
+        <v>71643.199999999997</v>
+      </c>
+      <c r="AE8">
         <v>141728</v>
       </c>
-      <c r="AF8" s="0" t="n">
+      <c r="AF8">
         <v>191180</v>
       </c>
-      <c r="AG8" s="0" t="n">
+      <c r="AG8">
         <v>102195</v>
       </c>
-      <c r="AH8" s="0" t="n">
-        <v>63098.4</v>
-      </c>
-      <c r="AI8" s="0" t="n">
+      <c r="AH8">
+        <v>63098.400000000001</v>
+      </c>
+      <c r="AI8">
         <v>76316</v>
       </c>
-      <c r="AJ8" s="0" t="n">
-        <v>27674.8</v>
-      </c>
-      <c r="AK8" s="0" t="n">
+      <c r="AJ8">
+        <v>27674.799999999999</v>
+      </c>
+      <c r="AK8">
         <v>143083</v>
       </c>
-      <c r="AL8" s="0" t="n">
+      <c r="AL8">
         <v>114587</v>
       </c>
-      <c r="AM8" s="0" t="n">
+      <c r="AM8">
         <v>19243.8</v>
       </c>
-      <c r="AN8" s="0" t="n">
+      <c r="AN8">
         <v>108483</v>
       </c>
-      <c r="AO8" s="0" t="n">
+      <c r="AO8">
         <v>358197</v>
       </c>
-      <c r="AP8" s="0" t="n">
+      <c r="AP8">
         <v>936510</v>
       </c>
-      <c r="AQ8" s="0" t="n">
+      <c r="AQ8">
         <v>285029</v>
       </c>
-      <c r="AR8" s="0" t="n">
+      <c r="AR8">
         <v>29211.8</v>
       </c>
-      <c r="AS8" s="0" t="n">
+      <c r="AS8">
         <v>98159.9</v>
       </c>
-      <c r="AT8" s="0" t="n">
+      <c r="AT8">
         <v>766579</v>
       </c>
-      <c r="AU8" s="0" t="n">
+      <c r="AU8">
         <v>40013</v>
       </c>
-      <c r="AV8" s="0" t="n">
+      <c r="AV8">
         <v>678186</v>
       </c>
-      <c r="AW8" s="0" t="n">
+      <c r="AW8">
         <v>767175</v>
       </c>
-      <c r="AX8" s="0" t="n">
+      <c r="AX8">
         <v>619880</v>
       </c>
-      <c r="AY8" s="0" t="n">
+      <c r="AY8">
         <v>44399.1</v>
       </c>
-      <c r="AZ8" s="0" t="n">
+      <c r="AZ8">
         <v>198086</v>
       </c>
-      <c r="BA8" s="0" t="n">
+      <c r="BA8">
         <v>237964</v>
       </c>
-      <c r="BB8" s="0" t="n">
+      <c r="BB8">
         <v>217726</v>
       </c>
-      <c r="BC8" s="0" t="n">
+      <c r="BC8">
         <v>180510</v>
       </c>
-      <c r="BD8" s="0" t="n">
-        <v>73810.9</v>
-      </c>
-      <c r="BE8" s="0" t="n">
+      <c r="BD8">
+        <v>73810.899999999994</v>
+      </c>
+      <c r="BE8">
         <v>54574.7</v>
       </c>
-      <c r="BF8" s="0" t="n">
+      <c r="BF8">
         <v>145228</v>
       </c>
-      <c r="BG8" s="0" t="n">
+      <c r="BG8">
         <v>46448.4</v>
       </c>
-      <c r="BH8" s="0" t="n">
+      <c r="BH8">
         <v>278316</v>
       </c>
-      <c r="BI8" s="0" t="n">
+      <c r="BI8">
         <v>359401</v>
       </c>
-      <c r="BJ8" s="0" t="n">
+      <c r="BJ8">
         <v>201420</v>
       </c>
-      <c r="BK8" s="0" t="n">
+      <c r="BK8">
         <v>216385</v>
       </c>
-      <c r="BL8" s="0" t="n">
+      <c r="BL8">
         <v>214748</v>
       </c>
-      <c r="BM8" s="0" t="n">
+      <c r="BM8">
         <v>478908</v>
       </c>
-      <c r="BN8" s="0" t="n">
+      <c r="BN8">
         <v>421440</v>
       </c>
-      <c r="BO8" s="0" t="n">
+      <c r="BO8">
         <v>209949</v>
       </c>
-      <c r="BP8" s="0" t="n">
+      <c r="BP8">
         <v>306682</v>
       </c>
-      <c r="BQ8" s="0" t="n">
+      <c r="BQ8">
         <v>96562.3</v>
       </c>
-      <c r="BR8" s="0" t="n">
+      <c r="BR8">
         <v>134184</v>
       </c>
-      <c r="BS8" s="0" t="n">
+      <c r="BS8">
         <v>440679</v>
       </c>
-      <c r="BT8" s="0" t="n">
+      <c r="BT8">
         <v>266616</v>
       </c>
-      <c r="BU8" s="0" t="n">
+      <c r="BU8">
         <v>60499.6</v>
       </c>
-      <c r="BV8" s="0" t="n">
+      <c r="BV8">
         <v>115992</v>
       </c>
-      <c r="BW8" s="0" t="n">
+      <c r="BW8">
         <v>130363</v>
       </c>
-      <c r="BX8" s="0" t="n">
+      <c r="BX8">
         <v>213916</v>
       </c>
-      <c r="BY8" s="0" t="n">
+      <c r="BY8">
         <v>253061</v>
       </c>
-      <c r="BZ8" s="0" t="n">
+      <c r="BZ8">
         <v>586708</v>
       </c>
-      <c r="CA8" s="0" t="n">
+      <c r="CA8">
         <v>502870</v>
       </c>
-      <c r="CB8" s="0" t="n">
+      <c r="CB8">
         <v>361481</v>
       </c>
-      <c r="CC8" s="0" t="n">
+      <c r="CC8">
         <v>27859</v>
       </c>
-      <c r="CD8" s="0" t="n">
+      <c r="CD8">
         <v>255799</v>
       </c>
-      <c r="CE8" s="0" t="n">
+      <c r="CE8">
         <v>425730</v>
       </c>
-      <c r="CF8" s="0" t="n">
+      <c r="CF8">
         <v>14636</v>
       </c>
-      <c r="CG8" s="0" t="n">
+      <c r="CG8">
         <v>240085</v>
       </c>
-      <c r="CH8" s="0" t="n">
+      <c r="CH8">
         <v>471566</v>
       </c>
-      <c r="CI8" s="0" t="n">
-        <v>9151.8</v>
-      </c>
-      <c r="CJ8" s="0" t="n">
+      <c r="CI8">
+        <v>9151.7999999999993</v>
+      </c>
+      <c r="CJ8">
         <v>220806</v>
       </c>
-      <c r="CK8" s="0" t="n">
+      <c r="CK8">
         <v>978748</v>
       </c>
-      <c r="CL8" s="0" t="n">
+      <c r="CL8">
         <v>452152</v>
       </c>
-      <c r="CM8" s="0" t="n">
+      <c r="CM8">
         <v>97618.7</v>
       </c>
-      <c r="CN8" s="0" t="n">
+      <c r="CN8">
         <v>842120</v>
       </c>
-      <c r="CO8" s="0" t="n">
+      <c r="CO8">
         <v>265471</v>
       </c>
-      <c r="CP8" s="0" t="n">
+      <c r="CP8">
         <v>693789</v>
       </c>
-      <c r="CQ8" s="0" t="n">
+      <c r="CQ8">
         <v>703170</v>
       </c>
-      <c r="CR8" s="0" t="n">
-        <v>42481.6</v>
-      </c>
-      <c r="CS8" s="0" t="n">
+      <c r="CR8">
+        <v>42481.599999999999</v>
+      </c>
+      <c r="CS8">
         <v>723947</v>
       </c>
-      <c r="CT8" s="0" t="n">
+      <c r="CT8">
         <v>734971</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>40</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>199917</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>84042.3</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9">
         <v>199113</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>233100</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>234943</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9">
         <v>78741</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9">
         <v>10487.4</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9">
         <v>65465.1</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9">
         <v>238809</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9">
         <v>25645.3</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9">
         <v>19543.5</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="M9">
         <v>56776.4</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="N9">
         <v>3844.54</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="O9">
         <v>51567.9</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="P9">
         <v>62381.5</v>
       </c>
-      <c r="Q9" s="0" t="n">
+      <c r="Q9">
         <v>37514.6</v>
       </c>
-      <c r="R9" s="0" t="n">
+      <c r="R9">
         <v>14983.3</v>
       </c>
-      <c r="S9" s="0" t="n">
-        <v>21006.8</v>
-      </c>
-      <c r="T9" s="0" t="n">
-        <v>36272.3</v>
-      </c>
-      <c r="U9" s="0" t="n">
+      <c r="S9">
+        <v>21006.799999999999</v>
+      </c>
+      <c r="T9">
+        <v>36272.300000000003</v>
+      </c>
+      <c r="U9">
         <v>91823.3</v>
       </c>
-      <c r="V9" s="0" t="n">
+      <c r="V9">
         <v>86930.8</v>
       </c>
-      <c r="W9" s="0" t="n">
+      <c r="W9">
         <v>106210</v>
       </c>
-      <c r="X9" s="0" t="n">
+      <c r="X9">
         <v>35398.6</v>
       </c>
-      <c r="Y9" s="0" t="n">
+      <c r="Y9">
         <v>108782</v>
       </c>
-      <c r="Z9" s="0" t="n">
+      <c r="Z9">
         <v>58775.4</v>
       </c>
-      <c r="AA9" s="0" t="n">
-        <v>16661.6</v>
-      </c>
-      <c r="AB9" s="0" t="n">
-        <v>55136.8</v>
-      </c>
-      <c r="AC9" s="0" t="n">
-        <v>56370.4</v>
-      </c>
-      <c r="AD9" s="0" t="n">
-        <v>72850.9</v>
-      </c>
-      <c r="AE9" s="0" t="n">
+      <c r="AA9">
+        <v>16661.599999999999</v>
+      </c>
+      <c r="AB9">
+        <v>55136.800000000003</v>
+      </c>
+      <c r="AC9">
+        <v>56370.400000000001</v>
+      </c>
+      <c r="AD9">
+        <v>72850.899999999994</v>
+      </c>
+      <c r="AE9">
         <v>148676</v>
       </c>
-      <c r="AF9" s="0" t="n">
+      <c r="AF9">
         <v>191180</v>
       </c>
-      <c r="AG9" s="0" t="n">
+      <c r="AG9">
         <v>102232</v>
       </c>
-      <c r="AH9" s="0" t="n">
+      <c r="AH9">
         <v>64649.9</v>
       </c>
-      <c r="AI9" s="0" t="n">
+      <c r="AI9">
         <v>77154.2</v>
       </c>
-      <c r="AJ9" s="0" t="n">
+      <c r="AJ9">
         <v>30126.2</v>
       </c>
-      <c r="AK9" s="0" t="n">
+      <c r="AK9">
         <v>146722</v>
       </c>
-      <c r="AL9" s="0" t="n">
+      <c r="AL9">
         <v>116966</v>
       </c>
-      <c r="AM9" s="0" t="n">
+      <c r="AM9">
         <v>21028.1</v>
       </c>
-      <c r="AN9" s="0" t="n">
+      <c r="AN9">
         <v>110406</v>
       </c>
-      <c r="AO9" s="0" t="n">
+      <c r="AO9">
         <v>361061</v>
       </c>
-      <c r="AP9" s="0" t="n">
+      <c r="AP9">
         <v>949378</v>
       </c>
-      <c r="AQ9" s="0" t="n">
+      <c r="AQ9">
         <v>296997</v>
       </c>
-      <c r="AR9" s="0" t="n">
+      <c r="AR9">
         <v>31219</v>
       </c>
-      <c r="AS9" s="0" t="n">
+      <c r="AS9">
         <v>103956</v>
       </c>
-      <c r="AT9" s="0" t="n">
+      <c r="AT9">
         <v>783560</v>
       </c>
-      <c r="AU9" s="0" t="n">
+      <c r="AU9">
         <v>42910</v>
       </c>
-      <c r="AV9" s="0" t="n">
+      <c r="AV9">
         <v>699271</v>
       </c>
-      <c r="AW9" s="0" t="n">
+      <c r="AW9">
         <v>793540</v>
       </c>
-      <c r="AX9" s="0" t="n">
+      <c r="AX9">
         <v>632798</v>
       </c>
-      <c r="AY9" s="0" t="n">
+      <c r="AY9">
         <v>46925.4</v>
       </c>
-      <c r="AZ9" s="0" t="n">
+      <c r="AZ9">
         <v>202185</v>
       </c>
-      <c r="BA9" s="0" t="n">
+      <c r="BA9">
         <v>239851</v>
       </c>
-      <c r="BB9" s="0" t="n">
+      <c r="BB9">
         <v>224362</v>
       </c>
-      <c r="BC9" s="0" t="n">
+      <c r="BC9">
         <v>187200</v>
       </c>
-      <c r="BD9" s="0" t="n">
-        <v>76147.6</v>
-      </c>
-      <c r="BE9" s="0" t="n">
+      <c r="BD9">
+        <v>76147.600000000006</v>
+      </c>
+      <c r="BE9">
         <v>56345.3</v>
       </c>
-      <c r="BF9" s="0" t="n">
+      <c r="BF9">
         <v>145963</v>
       </c>
-      <c r="BG9" s="0" t="n">
+      <c r="BG9">
         <v>48048.6</v>
       </c>
-      <c r="BH9" s="0" t="n">
+      <c r="BH9">
         <v>279411</v>
       </c>
-      <c r="BI9" s="0" t="n">
+      <c r="BI9">
         <v>371289</v>
       </c>
-      <c r="BJ9" s="0" t="n">
+      <c r="BJ9">
         <v>201898</v>
       </c>
-      <c r="BK9" s="0" t="n">
+      <c r="BK9">
         <v>218390</v>
       </c>
-      <c r="BL9" s="0" t="n">
+      <c r="BL9">
         <v>217851</v>
       </c>
-      <c r="BM9" s="0" t="n">
+      <c r="BM9">
         <v>488105</v>
       </c>
-      <c r="BN9" s="0" t="n">
+      <c r="BN9">
         <v>433691</v>
       </c>
-      <c r="BO9" s="0" t="n">
+      <c r="BO9">
         <v>211096</v>
       </c>
-      <c r="BP9" s="0" t="n">
+      <c r="BP9">
         <v>313270</v>
       </c>
-      <c r="BQ9" s="0" t="n">
+      <c r="BQ9">
         <v>102494</v>
       </c>
-      <c r="BR9" s="0" t="n">
+      <c r="BR9">
         <v>142420</v>
       </c>
-      <c r="BS9" s="0" t="n">
+      <c r="BS9">
         <v>442814</v>
       </c>
-      <c r="BT9" s="0" t="n">
+      <c r="BT9">
         <v>269261</v>
       </c>
-      <c r="BU9" s="0" t="n">
+      <c r="BU9">
         <v>64230.8</v>
       </c>
-      <c r="BV9" s="0" t="n">
+      <c r="BV9">
         <v>122280</v>
       </c>
-      <c r="BW9" s="0" t="n">
+      <c r="BW9">
         <v>139686</v>
       </c>
-      <c r="BX9" s="0" t="n">
+      <c r="BX9">
         <v>223137</v>
       </c>
-      <c r="BY9" s="0" t="n">
+      <c r="BY9">
         <v>261290</v>
       </c>
-      <c r="BZ9" s="0" t="n">
+      <c r="BZ9">
         <v>607434</v>
       </c>
-      <c r="CA9" s="0" t="n">
+      <c r="CA9">
         <v>517944</v>
       </c>
-      <c r="CB9" s="0" t="n">
+      <c r="CB9">
         <v>366837</v>
       </c>
-      <c r="CC9" s="0" t="n">
+      <c r="CC9">
         <v>29765</v>
       </c>
-      <c r="CD9" s="0" t="n">
+      <c r="CD9">
         <v>256487</v>
       </c>
-      <c r="CE9" s="0" t="n">
+      <c r="CE9">
         <v>435799</v>
       </c>
-      <c r="CF9" s="0" t="n">
+      <c r="CF9">
         <v>15228.1</v>
       </c>
-      <c r="CG9" s="0" t="n">
+      <c r="CG9">
         <v>241051</v>
       </c>
-      <c r="CH9" s="0" t="n">
+      <c r="CH9">
         <v>481546</v>
       </c>
-      <c r="CI9" s="0" t="n">
-        <v>9506.28</v>
-      </c>
-      <c r="CJ9" s="0" t="n">
+      <c r="CI9">
+        <v>9506.2800000000007</v>
+      </c>
+      <c r="CJ9">
         <v>222935</v>
       </c>
-      <c r="CK9" s="0" t="n">
+      <c r="CK9">
         <v>993029</v>
       </c>
-      <c r="CL9" s="0" t="n">
+      <c r="CL9">
         <v>456177</v>
       </c>
-      <c r="CM9" s="0" t="n">
+      <c r="CM9">
         <v>100224</v>
       </c>
-      <c r="CN9" s="0" t="n">
+      <c r="CN9">
         <v>858649</v>
       </c>
-      <c r="CO9" s="0" t="n">
+      <c r="CO9">
         <v>276992</v>
       </c>
-      <c r="CP9" s="0" t="n">
+      <c r="CP9">
         <v>702237</v>
       </c>
-      <c r="CQ9" s="0" t="n">
+      <c r="CQ9">
         <v>712712</v>
       </c>
-      <c r="CR9" s="0" t="n">
+      <c r="CR9">
         <v>45624.4</v>
       </c>
-      <c r="CS9" s="0" t="n">
+      <c r="CS9">
         <v>737195</v>
       </c>
-      <c r="CT9" s="0" t="n">
+      <c r="CT9">
         <v>740259</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>50</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>203386</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10">
         <v>84754.2</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10">
         <v>202495</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10">
         <v>234893</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10">
         <v>236123</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10">
         <v>79616.7</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10">
         <v>10548</v>
       </c>
-      <c r="I10" s="0" t="n">
-        <v>65637.4</v>
-      </c>
-      <c r="J10" s="0" t="n">
+      <c r="I10">
+        <v>65637.399999999994</v>
+      </c>
+      <c r="J10">
         <v>240088</v>
       </c>
-      <c r="K10" s="0" t="n">
-        <v>25710.8</v>
-      </c>
-      <c r="L10" s="0" t="n">
+      <c r="K10">
+        <v>25710.799999999999</v>
+      </c>
+      <c r="L10">
         <v>19837.2</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="M10">
         <v>57029</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="N10">
         <v>3849.3</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="O10">
         <v>52447.3</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="P10">
         <v>62474</v>
       </c>
-      <c r="Q10" s="0" t="n">
+      <c r="Q10">
         <v>37626</v>
       </c>
-      <c r="R10" s="0" t="n">
+      <c r="R10">
         <v>15110.4</v>
       </c>
-      <c r="S10" s="0" t="n">
+      <c r="S10">
         <v>21127.8</v>
       </c>
-      <c r="T10" s="0" t="n">
-        <v>36541.3</v>
-      </c>
-      <c r="U10" s="0" t="n">
+      <c r="T10">
+        <v>36541.300000000003</v>
+      </c>
+      <c r="U10">
         <v>93301.6</v>
       </c>
-      <c r="V10" s="0" t="n">
+      <c r="V10">
         <v>87567.3</v>
       </c>
-      <c r="W10" s="0" t="n">
+      <c r="W10">
         <v>107099</v>
       </c>
-      <c r="X10" s="0" t="n">
-        <v>35750.3</v>
-      </c>
-      <c r="Y10" s="0" t="n">
+      <c r="X10">
+        <v>35750.300000000003</v>
+      </c>
+      <c r="Y10">
         <v>109729</v>
       </c>
-      <c r="Z10" s="0" t="n">
+      <c r="Z10">
         <v>58899.3</v>
       </c>
-      <c r="AA10" s="0" t="n">
+      <c r="AA10">
         <v>16870.5</v>
       </c>
-      <c r="AB10" s="0" t="n">
-        <v>55186.4</v>
-      </c>
-      <c r="AC10" s="0" t="n">
+      <c r="AB10">
+        <v>55186.400000000001</v>
+      </c>
+      <c r="AC10">
         <v>56572.6</v>
       </c>
-      <c r="AD10" s="0" t="n">
-        <v>73269.6</v>
-      </c>
-      <c r="AE10" s="0" t="n">
+      <c r="AD10">
+        <v>73269.600000000006</v>
+      </c>
+      <c r="AE10">
         <v>150173</v>
       </c>
-      <c r="AF10" s="0" t="n">
+      <c r="AF10">
         <v>191183</v>
       </c>
-      <c r="AG10" s="0" t="n">
+      <c r="AG10">
         <v>102396</v>
       </c>
-      <c r="AH10" s="0" t="n">
+      <c r="AH10">
         <v>65233.2</v>
       </c>
-      <c r="AI10" s="0" t="n">
-        <v>77558.4</v>
-      </c>
-      <c r="AJ10" s="0" t="n">
-        <v>31046.4</v>
-      </c>
-      <c r="AK10" s="0" t="n">
+      <c r="AI10">
+        <v>77558.399999999994</v>
+      </c>
+      <c r="AJ10">
+        <v>31046.400000000001</v>
+      </c>
+      <c r="AK10">
         <v>149068</v>
       </c>
-      <c r="AL10" s="0" t="n">
+      <c r="AL10">
         <v>117484</v>
       </c>
-      <c r="AM10" s="0" t="n">
-        <v>21585.2</v>
-      </c>
-      <c r="AN10" s="0" t="n">
+      <c r="AM10">
+        <v>21585.200000000001</v>
+      </c>
+      <c r="AN10">
         <v>110680</v>
       </c>
-      <c r="AO10" s="0" t="n">
+      <c r="AO10">
         <v>365542</v>
       </c>
-      <c r="AP10" s="0" t="n">
+      <c r="AP10">
         <v>954471</v>
       </c>
-      <c r="AQ10" s="0" t="n">
+      <c r="AQ10">
         <v>303667</v>
       </c>
-      <c r="AR10" s="0" t="n">
+      <c r="AR10">
         <v>31639</v>
       </c>
-      <c r="AS10" s="0" t="n">
+      <c r="AS10">
         <v>105891</v>
       </c>
-      <c r="AT10" s="0" t="n">
+      <c r="AT10">
         <v>796760</v>
       </c>
-      <c r="AU10" s="0" t="n">
-        <v>43214.4</v>
-      </c>
-      <c r="AV10" s="0" t="n">
+      <c r="AU10">
+        <v>43214.400000000001</v>
+      </c>
+      <c r="AV10">
         <v>707903</v>
       </c>
-      <c r="AW10" s="0" t="n">
+      <c r="AW10">
         <v>803507</v>
       </c>
-      <c r="AX10" s="0" t="n">
+      <c r="AX10">
         <v>637239</v>
       </c>
-      <c r="AY10" s="0" t="n">
+      <c r="AY10">
         <v>48330.3</v>
       </c>
-      <c r="AZ10" s="0" t="n">
+      <c r="AZ10">
         <v>205100</v>
       </c>
-      <c r="BA10" s="0" t="n">
+      <c r="BA10">
         <v>241174</v>
       </c>
-      <c r="BB10" s="0" t="n">
+      <c r="BB10">
         <v>225620</v>
       </c>
-      <c r="BC10" s="0" t="n">
+      <c r="BC10">
         <v>189289</v>
       </c>
-      <c r="BD10" s="0" t="n">
+      <c r="BD10">
         <v>77569.5</v>
       </c>
-      <c r="BE10" s="0" t="n">
-        <v>57925.6</v>
-      </c>
-      <c r="BF10" s="0" t="n">
+      <c r="BE10">
+        <v>57925.599999999999</v>
+      </c>
+      <c r="BF10">
         <v>146284</v>
       </c>
-      <c r="BG10" s="0" t="n">
+      <c r="BG10">
         <v>49263.7</v>
       </c>
-      <c r="BH10" s="0" t="n">
+      <c r="BH10">
         <v>279757</v>
       </c>
-      <c r="BI10" s="0" t="n">
+      <c r="BI10">
         <v>375365</v>
       </c>
-      <c r="BJ10" s="0" t="n">
+      <c r="BJ10">
         <v>202782</v>
       </c>
-      <c r="BK10" s="0" t="n">
+      <c r="BK10">
         <v>219317</v>
       </c>
-      <c r="BL10" s="0" t="n">
+      <c r="BL10">
         <v>219032</v>
       </c>
-      <c r="BM10" s="0" t="n">
+      <c r="BM10">
         <v>489689</v>
       </c>
-      <c r="BN10" s="0" t="n">
+      <c r="BN10">
         <v>437892</v>
       </c>
-      <c r="BO10" s="0" t="n">
+      <c r="BO10">
         <v>212182</v>
       </c>
-      <c r="BP10" s="0" t="n">
+      <c r="BP10">
         <v>316119</v>
       </c>
-      <c r="BQ10" s="0" t="n">
+      <c r="BQ10">
         <v>105204</v>
       </c>
-      <c r="BR10" s="0" t="n">
+      <c r="BR10">
         <v>145560</v>
       </c>
-      <c r="BS10" s="0" t="n">
+      <c r="BS10">
         <v>444131</v>
       </c>
-      <c r="BT10" s="0" t="n">
+      <c r="BT10">
         <v>271161</v>
       </c>
-      <c r="BU10" s="0" t="n">
+      <c r="BU10">
         <v>65277.2</v>
       </c>
-      <c r="BV10" s="0" t="n">
+      <c r="BV10">
         <v>126530</v>
       </c>
-      <c r="BW10" s="0" t="n">
+      <c r="BW10">
         <v>142617</v>
       </c>
-      <c r="BX10" s="0" t="n">
+      <c r="BX10">
         <v>228047</v>
       </c>
-      <c r="BY10" s="0" t="n">
+      <c r="BY10">
         <v>265598</v>
       </c>
-      <c r="BZ10" s="0" t="n">
+      <c r="BZ10">
         <v>610850</v>
       </c>
-      <c r="CA10" s="0" t="n">
+      <c r="CA10">
         <v>523435</v>
       </c>
-      <c r="CB10" s="0" t="n">
+      <c r="CB10">
         <v>368910</v>
       </c>
-      <c r="CC10" s="0" t="n">
+      <c r="CC10">
         <v>30536.6</v>
       </c>
-      <c r="CD10" s="0" t="n">
+      <c r="CD10">
         <v>257400</v>
       </c>
-      <c r="CE10" s="0" t="n">
+      <c r="CE10">
         <v>440015</v>
       </c>
-      <c r="CF10" s="0" t="n">
+      <c r="CF10">
         <v>15378.1</v>
       </c>
-      <c r="CG10" s="0" t="n">
+      <c r="CG10">
         <v>242755</v>
       </c>
-      <c r="CH10" s="0" t="n">
+      <c r="CH10">
         <v>486705</v>
       </c>
-      <c r="CI10" s="0" t="n">
+      <c r="CI10">
         <v>9563.64</v>
       </c>
-      <c r="CJ10" s="0" t="n">
+      <c r="CJ10">
         <v>225043</v>
       </c>
-      <c r="CK10" s="0" t="n">
+      <c r="CK10" s="1">
         <v>1001360</v>
       </c>
-      <c r="CL10" s="0" t="n">
+      <c r="CL10">
         <v>459507</v>
       </c>
-      <c r="CM10" s="0" t="n">
+      <c r="CM10">
         <v>102586</v>
       </c>
-      <c r="CN10" s="0" t="n">
+      <c r="CN10">
         <v>868298</v>
       </c>
-      <c r="CO10" s="0" t="n">
+      <c r="CO10">
         <v>284298</v>
       </c>
-      <c r="CP10" s="0" t="n">
+      <c r="CP10">
         <v>704960</v>
       </c>
-      <c r="CQ10" s="0" t="n">
+      <c r="CQ10">
         <v>716706</v>
       </c>
-      <c r="CR10" s="0" t="n">
+      <c r="CR10">
         <v>46620.3</v>
       </c>
-      <c r="CS10" s="0" t="n">
+      <c r="CS10">
         <v>745043</v>
       </c>
-      <c r="CT10" s="0" t="n">
+      <c r="CT10">
         <v>743708</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>60</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>204068</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11">
         <v>85134.6</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11">
         <v>202683</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11">
         <v>234982</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11">
         <v>236761</v>
       </c>
-      <c r="G11" s="0" t="n">
-        <v>79781.1</v>
-      </c>
-      <c r="H11" s="0" t="n">
+      <c r="G11">
+        <v>79781.100000000006</v>
+      </c>
+      <c r="H11">
         <v>10628.2</v>
       </c>
-      <c r="I11" s="0" t="n">
-        <v>66723.2</v>
-      </c>
-      <c r="J11" s="0" t="n">
+      <c r="I11">
+        <v>66723.199999999997</v>
+      </c>
+      <c r="J11">
         <v>240707</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="K11">
         <v>25713.1</v>
       </c>
-      <c r="L11" s="0" t="n">
-        <v>19865.6</v>
-      </c>
-      <c r="M11" s="0" t="n">
+      <c r="L11">
+        <v>19865.599999999999</v>
+      </c>
+      <c r="M11">
         <v>57352.9</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="N11">
         <v>3854.64</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="O11">
         <v>52473.5</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="P11">
         <v>62532.1</v>
       </c>
-      <c r="Q11" s="0" t="n">
+      <c r="Q11">
         <v>37626</v>
       </c>
-      <c r="R11" s="0" t="n">
+      <c r="R11">
         <v>15259.1</v>
       </c>
-      <c r="S11" s="0" t="n">
+      <c r="S11">
         <v>21169</v>
       </c>
-      <c r="T11" s="0" t="n">
+      <c r="T11">
         <v>36567.1</v>
       </c>
-      <c r="U11" s="0" t="n">
+      <c r="U11">
         <v>93392.8</v>
       </c>
-      <c r="V11" s="0" t="n">
+      <c r="V11">
         <v>87663.9</v>
       </c>
-      <c r="W11" s="0" t="n">
+      <c r="W11">
         <v>107615</v>
       </c>
-      <c r="X11" s="0" t="n">
+      <c r="X11">
         <v>36082.5</v>
       </c>
-      <c r="Y11" s="0" t="n">
+      <c r="Y11">
         <v>109994</v>
       </c>
-      <c r="Z11" s="0" t="n">
+      <c r="Z11">
         <v>58935.8</v>
       </c>
-      <c r="AA11" s="0" t="n">
-        <v>17180.6</v>
-      </c>
-      <c r="AB11" s="0" t="n">
-        <v>55186.4</v>
-      </c>
-      <c r="AC11" s="0" t="n">
+      <c r="AA11">
+        <v>17180.599999999999</v>
+      </c>
+      <c r="AB11">
+        <v>55186.400000000001</v>
+      </c>
+      <c r="AC11">
         <v>56579</v>
       </c>
-      <c r="AD11" s="0" t="n">
+      <c r="AD11">
         <v>73337.8</v>
       </c>
-      <c r="AE11" s="0" t="n">
+      <c r="AE11">
         <v>150355</v>
       </c>
-      <c r="AF11" s="0" t="n">
+      <c r="AF11">
         <v>191183</v>
       </c>
-      <c r="AG11" s="0" t="n">
+      <c r="AG11">
         <v>102458</v>
       </c>
-      <c r="AH11" s="0" t="n">
+      <c r="AH11">
         <v>65573.2</v>
       </c>
-      <c r="AI11" s="0" t="n">
-        <v>77558.4</v>
-      </c>
-      <c r="AJ11" s="0" t="n">
+      <c r="AI11">
+        <v>77558.399999999994</v>
+      </c>
+      <c r="AJ11">
         <v>31079.3</v>
       </c>
-      <c r="AK11" s="0" t="n">
+      <c r="AK11">
         <v>149738</v>
       </c>
-      <c r="AL11" s="0" t="n">
+      <c r="AL11">
         <v>117484</v>
       </c>
-      <c r="AM11" s="0" t="n">
+      <c r="AM11">
         <v>21701.7</v>
       </c>
-      <c r="AN11" s="0" t="n">
+      <c r="AN11">
         <v>110947</v>
       </c>
-      <c r="AO11" s="0" t="n">
+      <c r="AO11">
         <v>366999</v>
       </c>
-      <c r="AP11" s="0" t="n">
+      <c r="AP11">
         <v>956003</v>
       </c>
-      <c r="AQ11" s="0" t="n">
+      <c r="AQ11">
         <v>305511</v>
       </c>
-      <c r="AR11" s="0" t="n">
+      <c r="AR11">
         <v>31780</v>
       </c>
-      <c r="AS11" s="0" t="n">
+      <c r="AS11">
         <v>106386</v>
       </c>
-      <c r="AT11" s="0" t="n">
+      <c r="AT11">
         <v>800447</v>
       </c>
-      <c r="AU11" s="0" t="n">
-        <v>43294.4</v>
-      </c>
-      <c r="AV11" s="0" t="n">
+      <c r="AU11">
+        <v>43294.400000000001</v>
+      </c>
+      <c r="AV11">
         <v>708681</v>
       </c>
-      <c r="AW11" s="0" t="n">
+      <c r="AW11">
         <v>804182</v>
       </c>
-      <c r="AX11" s="0" t="n">
+      <c r="AX11">
         <v>638021</v>
       </c>
-      <c r="AY11" s="0" t="n">
+      <c r="AY11">
         <v>48966.7</v>
       </c>
-      <c r="AZ11" s="0" t="n">
+      <c r="AZ11">
         <v>205276</v>
       </c>
-      <c r="BA11" s="0" t="n">
+      <c r="BA11">
         <v>241322</v>
       </c>
-      <c r="BB11" s="0" t="n">
+      <c r="BB11">
         <v>225620</v>
       </c>
-      <c r="BC11" s="0" t="n">
+      <c r="BC11">
         <v>189346</v>
       </c>
-      <c r="BD11" s="0" t="n">
+      <c r="BD11">
         <v>77849</v>
       </c>
-      <c r="BE11" s="0" t="n">
-        <v>58379.2</v>
-      </c>
-      <c r="BF11" s="0" t="n">
+      <c r="BE11">
+        <v>58379.199999999997</v>
+      </c>
+      <c r="BF11">
         <v>146376</v>
       </c>
-      <c r="BG11" s="0" t="n">
+      <c r="BG11">
         <v>49517.5</v>
       </c>
-      <c r="BH11" s="0" t="n">
+      <c r="BH11">
         <v>280208</v>
       </c>
-      <c r="BI11" s="0" t="n">
+      <c r="BI11">
         <v>375608</v>
       </c>
-      <c r="BJ11" s="0" t="n">
+      <c r="BJ11">
         <v>202775</v>
       </c>
-      <c r="BK11" s="0" t="n">
+      <c r="BK11">
         <v>220075</v>
       </c>
-      <c r="BL11" s="0" t="n">
+      <c r="BL11">
         <v>220062</v>
       </c>
-      <c r="BM11" s="0" t="n">
+      <c r="BM11">
         <v>490321</v>
       </c>
-      <c r="BN11" s="0" t="n">
+      <c r="BN11">
         <v>438084</v>
       </c>
-      <c r="BO11" s="0" t="n">
+      <c r="BO11">
         <v>212744</v>
       </c>
-      <c r="BP11" s="0" t="n">
+      <c r="BP11">
         <v>316979</v>
       </c>
-      <c r="BQ11" s="0" t="n">
+      <c r="BQ11">
         <v>106511</v>
       </c>
-      <c r="BR11" s="0" t="n">
+      <c r="BR11">
         <v>146813</v>
       </c>
-      <c r="BS11" s="0" t="n">
+      <c r="BS11">
         <v>444362</v>
       </c>
-      <c r="BT11" s="0" t="n">
+      <c r="BT11">
         <v>272045</v>
       </c>
-      <c r="BU11" s="0" t="n">
+      <c r="BU11">
         <v>65853.3</v>
       </c>
-      <c r="BV11" s="0" t="n">
+      <c r="BV11">
         <v>128848</v>
       </c>
-      <c r="BW11" s="0" t="n">
+      <c r="BW11">
         <v>143550</v>
       </c>
-      <c r="BX11" s="0" t="n">
+      <c r="BX11">
         <v>229441</v>
       </c>
-      <c r="BY11" s="0" t="n">
+      <c r="BY11">
         <v>267463</v>
       </c>
-      <c r="BZ11" s="0" t="n">
+      <c r="BZ11">
         <v>612031</v>
       </c>
-      <c r="CA11" s="0" t="n">
+      <c r="CA11">
         <v>523739</v>
       </c>
-      <c r="CB11" s="0" t="n">
+      <c r="CB11">
         <v>368967</v>
       </c>
-      <c r="CC11" s="0" t="n">
+      <c r="CC11">
         <v>30619</v>
       </c>
-      <c r="CD11" s="0" t="n">
+      <c r="CD11">
         <v>258440</v>
       </c>
-      <c r="CE11" s="0" t="n">
+      <c r="CE11">
         <v>440332</v>
       </c>
-      <c r="CF11" s="0" t="n">
+      <c r="CF11">
         <v>15502.1</v>
       </c>
-      <c r="CG11" s="0" t="n">
+      <c r="CG11">
         <v>244142</v>
       </c>
-      <c r="CH11" s="0" t="n">
+      <c r="CH11">
         <v>487473</v>
       </c>
-      <c r="CI11" s="0" t="n">
-        <v>9606.72</v>
-      </c>
-      <c r="CJ11" s="0" t="n">
+      <c r="CI11">
+        <v>9606.7199999999993</v>
+      </c>
+      <c r="CJ11">
         <v>226776</v>
       </c>
-      <c r="CK11" s="0" t="n">
+      <c r="CK11" s="1">
         <v>1003460</v>
       </c>
-      <c r="CL11" s="0" t="n">
+      <c r="CL11">
         <v>461455</v>
       </c>
-      <c r="CM11" s="0" t="n">
+      <c r="CM11">
         <v>103811</v>
       </c>
-      <c r="CN11" s="0" t="n">
+      <c r="CN11">
         <v>869954</v>
       </c>
-      <c r="CO11" s="0" t="n">
+      <c r="CO11">
         <v>288964</v>
       </c>
-      <c r="CP11" s="0" t="n">
+      <c r="CP11">
         <v>705591</v>
       </c>
-      <c r="CQ11" s="0" t="n">
+      <c r="CQ11">
         <v>718380</v>
       </c>
-      <c r="CR11" s="0" t="n">
+      <c r="CR11">
         <v>46614.5</v>
       </c>
-      <c r="CS11" s="0" t="n">
+      <c r="CS11">
         <v>746314</v>
       </c>
-      <c r="CT11" s="0" t="n">
+      <c r="CT11">
         <v>744835</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>70</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>204252</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>85327.6</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12">
         <v>202935</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12">
         <v>234989</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12">
         <v>237144</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12">
         <v>79932.2</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12">
         <v>10685.6</v>
       </c>
-      <c r="I12" s="0" t="n">
-        <v>67039.9</v>
-      </c>
-      <c r="J12" s="0" t="n">
+      <c r="I12">
+        <v>67039.899999999994</v>
+      </c>
+      <c r="J12">
         <v>241377</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="K12">
         <v>25724.7</v>
       </c>
-      <c r="L12" s="0" t="n">
-        <v>19895.9</v>
-      </c>
-      <c r="M12" s="0" t="n">
+      <c r="L12">
+        <v>19895.900000000001</v>
+      </c>
+      <c r="M12">
         <v>57476.4</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="N12">
         <v>3875.9</v>
       </c>
-      <c r="O12" s="0" t="n">
-        <v>52590.4</v>
-      </c>
-      <c r="P12" s="0" t="n">
+      <c r="O12">
+        <v>52590.400000000001</v>
+      </c>
+      <c r="P12">
         <v>62595</v>
       </c>
-      <c r="Q12" s="0" t="n">
+      <c r="Q12">
         <v>37626</v>
       </c>
-      <c r="R12" s="0" t="n">
+      <c r="R12">
         <v>15306.6</v>
       </c>
-      <c r="S12" s="0" t="n">
-        <v>21290.8</v>
-      </c>
-      <c r="T12" s="0" t="n">
+      <c r="S12">
+        <v>21290.799999999999</v>
+      </c>
+      <c r="T12">
         <v>36610</v>
       </c>
-      <c r="U12" s="0" t="n">
+      <c r="U12">
         <v>93471.2</v>
       </c>
-      <c r="V12" s="0" t="n">
+      <c r="V12">
         <v>87771.7</v>
       </c>
-      <c r="W12" s="0" t="n">
+      <c r="W12">
         <v>108144</v>
       </c>
-      <c r="X12" s="0" t="n">
+      <c r="X12">
         <v>36392</v>
       </c>
-      <c r="Y12" s="0" t="n">
+      <c r="Y12">
         <v>110087</v>
       </c>
-      <c r="Z12" s="0" t="n">
+      <c r="Z12">
         <v>58992.3</v>
       </c>
-      <c r="AA12" s="0" t="n">
+      <c r="AA12">
         <v>17253.8</v>
       </c>
-      <c r="AB12" s="0" t="n">
-        <v>55186.4</v>
-      </c>
-      <c r="AC12" s="0" t="n">
+      <c r="AB12">
+        <v>55186.400000000001</v>
+      </c>
+      <c r="AC12">
         <v>56642.6</v>
       </c>
-      <c r="AD12" s="0" t="n">
+      <c r="AD12">
         <v>73337.8</v>
       </c>
-      <c r="AE12" s="0" t="n">
+      <c r="AE12">
         <v>150406</v>
       </c>
-      <c r="AF12" s="0" t="n">
+      <c r="AF12">
         <v>191183</v>
       </c>
-      <c r="AG12" s="0" t="n">
+      <c r="AG12">
         <v>102565</v>
       </c>
-      <c r="AH12" s="0" t="n">
+      <c r="AH12">
         <v>65816</v>
       </c>
-      <c r="AI12" s="0" t="n">
-        <v>77558.4</v>
-      </c>
-      <c r="AJ12" s="0" t="n">
+      <c r="AI12">
+        <v>77558.399999999994</v>
+      </c>
+      <c r="AJ12">
         <v>31103.9</v>
       </c>
-      <c r="AK12" s="0" t="n">
+      <c r="AK12">
         <v>150475</v>
       </c>
-      <c r="AL12" s="0" t="n">
+      <c r="AL12">
         <v>117649</v>
       </c>
-      <c r="AM12" s="0" t="n">
+      <c r="AM12">
         <v>21727.7</v>
       </c>
-      <c r="AN12" s="0" t="n">
+      <c r="AN12">
         <v>111113</v>
       </c>
-      <c r="AO12" s="0" t="n">
+      <c r="AO12">
         <v>369606</v>
       </c>
-      <c r="AP12" s="0" t="n">
+      <c r="AP12">
         <v>958624</v>
       </c>
-      <c r="AQ12" s="0" t="n">
+      <c r="AQ12">
         <v>308613</v>
       </c>
-      <c r="AR12" s="0" t="n">
+      <c r="AR12">
         <v>31953.5</v>
       </c>
-      <c r="AS12" s="0" t="n">
+      <c r="AS12">
         <v>106823</v>
       </c>
-      <c r="AT12" s="0" t="n">
+      <c r="AT12">
         <v>804050</v>
       </c>
-      <c r="AU12" s="0" t="n">
+      <c r="AU12">
         <v>43331.6</v>
       </c>
-      <c r="AV12" s="0" t="n">
+      <c r="AV12">
         <v>710380</v>
       </c>
-      <c r="AW12" s="0" t="n">
+      <c r="AW12">
         <v>805247</v>
       </c>
-      <c r="AX12" s="0" t="n">
+      <c r="AX12">
         <v>638533</v>
       </c>
-      <c r="AY12" s="0" t="n">
+      <c r="AY12">
         <v>49350.3</v>
       </c>
-      <c r="AZ12" s="0" t="n">
+      <c r="AZ12">
         <v>206349</v>
       </c>
-      <c r="BA12" s="0" t="n">
+      <c r="BA12">
         <v>241859</v>
       </c>
-      <c r="BB12" s="0" t="n">
+      <c r="BB12">
         <v>225620</v>
       </c>
-      <c r="BC12" s="0" t="n">
+      <c r="BC12">
         <v>189404</v>
       </c>
-      <c r="BD12" s="0" t="n">
+      <c r="BD12">
         <v>78352.5</v>
       </c>
-      <c r="BE12" s="0" t="n">
+      <c r="BE12">
         <v>58921.3</v>
       </c>
-      <c r="BF12" s="0" t="n">
+      <c r="BF12">
         <v>146394</v>
       </c>
-      <c r="BG12" s="0" t="n">
-        <v>49714.4</v>
-      </c>
-      <c r="BH12" s="0" t="n">
+      <c r="BG12">
+        <v>49714.400000000001</v>
+      </c>
+      <c r="BH12">
         <v>280473</v>
       </c>
-      <c r="BI12" s="0" t="n">
+      <c r="BI12">
         <v>375619</v>
       </c>
-      <c r="BJ12" s="0" t="n">
+      <c r="BJ12">
         <v>202836</v>
       </c>
-      <c r="BK12" s="0" t="n">
+      <c r="BK12">
         <v>220768</v>
       </c>
-      <c r="BL12" s="0" t="n">
+      <c r="BL12">
         <v>221242</v>
       </c>
-      <c r="BM12" s="0" t="n">
+      <c r="BM12">
         <v>490520</v>
       </c>
-      <c r="BN12" s="0" t="n">
+      <c r="BN12">
         <v>438736</v>
       </c>
-      <c r="BO12" s="0" t="n">
+      <c r="BO12">
         <v>213253</v>
       </c>
-      <c r="BP12" s="0" t="n">
+      <c r="BP12">
         <v>317759</v>
       </c>
-      <c r="BQ12" s="0" t="n">
+      <c r="BQ12">
         <v>108143</v>
       </c>
-      <c r="BR12" s="0" t="n">
+      <c r="BR12">
         <v>148291</v>
       </c>
-      <c r="BS12" s="0" t="n">
+      <c r="BS12">
         <v>444578</v>
       </c>
-      <c r="BT12" s="0" t="n">
+      <c r="BT12">
         <v>274199</v>
       </c>
-      <c r="BU12" s="0" t="n">
+      <c r="BU12">
         <v>66025.2</v>
       </c>
-      <c r="BV12" s="0" t="n">
+      <c r="BV12">
         <v>130767</v>
       </c>
-      <c r="BW12" s="0" t="n">
+      <c r="BW12">
         <v>145014</v>
       </c>
-      <c r="BX12" s="0" t="n">
+      <c r="BX12">
         <v>231394</v>
       </c>
-      <c r="BY12" s="0" t="n">
+      <c r="BY12">
         <v>269567</v>
       </c>
-      <c r="BZ12" s="0" t="n">
+      <c r="BZ12">
         <v>612031</v>
       </c>
-      <c r="CA12" s="0" t="n">
+      <c r="CA12">
         <v>524897</v>
       </c>
-      <c r="CB12" s="0" t="n">
+      <c r="CB12">
         <v>369492</v>
       </c>
-      <c r="CC12" s="0" t="n">
+      <c r="CC12">
         <v>30625.8</v>
       </c>
-      <c r="CD12" s="0" t="n">
+      <c r="CD12">
         <v>259422</v>
       </c>
-      <c r="CE12" s="0" t="n">
+      <c r="CE12">
         <v>440466</v>
       </c>
-      <c r="CF12" s="0" t="n">
+      <c r="CF12">
         <v>15589.8</v>
       </c>
-      <c r="CG12" s="0" t="n">
+      <c r="CG12">
         <v>245650</v>
       </c>
-      <c r="CH12" s="0" t="n">
+      <c r="CH12">
         <v>487874</v>
       </c>
-      <c r="CI12" s="0" t="n">
+      <c r="CI12">
         <v>9602.52</v>
       </c>
-      <c r="CJ12" s="0" t="n">
+      <c r="CJ12">
         <v>228943</v>
       </c>
-      <c r="CK12" s="0" t="n">
+      <c r="CK12" s="1">
         <v>1008030</v>
       </c>
-      <c r="CL12" s="0" t="n">
+      <c r="CL12">
         <v>463323</v>
       </c>
-      <c r="CM12" s="0" t="n">
+      <c r="CM12">
         <v>104712</v>
       </c>
-      <c r="CN12" s="0" t="n">
+      <c r="CN12">
         <v>871896</v>
       </c>
-      <c r="CO12" s="0" t="n">
+      <c r="CO12">
         <v>294555</v>
       </c>
-      <c r="CP12" s="0" t="n">
+      <c r="CP12">
         <v>706076</v>
       </c>
-      <c r="CQ12" s="0" t="n">
+      <c r="CQ12">
         <v>719790</v>
       </c>
-      <c r="CR12" s="0" t="n">
-        <v>46665.6</v>
-      </c>
-      <c r="CS12" s="0" t="n">
+      <c r="CR12">
+        <v>46665.599999999999</v>
+      </c>
+      <c r="CS12">
         <v>748156</v>
       </c>
-      <c r="CT12" s="0" t="n">
+      <c r="CT12">
         <v>746543</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>80</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>204252</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>85695.8</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13">
         <v>202935</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13">
         <v>235084</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13">
         <v>237144</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13">
         <v>79988.3</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13">
         <v>10685.6</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13">
         <v>67090.7</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13">
         <v>241377</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="K13">
         <v>25724.7</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="L13">
         <v>19906.2</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="M13">
         <v>57599.9</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="N13">
         <v>3880.5</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="O13">
         <v>52633.8</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="P13">
         <v>62663.8</v>
       </c>
-      <c r="Q13" s="0" t="n">
+      <c r="Q13">
         <v>37626</v>
       </c>
-      <c r="R13" s="0" t="n">
+      <c r="R13">
         <v>15316.8</v>
       </c>
-      <c r="S13" s="0" t="n">
-        <v>21343.6</v>
-      </c>
-      <c r="T13" s="0" t="n">
+      <c r="S13">
+        <v>21343.599999999999</v>
+      </c>
+      <c r="T13">
         <v>36610</v>
       </c>
-      <c r="U13" s="0" t="n">
+      <c r="U13">
         <v>93471.2</v>
       </c>
-      <c r="V13" s="0" t="n">
+      <c r="V13">
         <v>87771.7</v>
       </c>
-      <c r="W13" s="0" t="n">
+      <c r="W13">
         <v>108156</v>
       </c>
-      <c r="X13" s="0" t="n">
+      <c r="X13">
         <v>36392</v>
       </c>
-      <c r="Y13" s="0" t="n">
+      <c r="Y13">
         <v>110087</v>
       </c>
-      <c r="Z13" s="0" t="n">
+      <c r="Z13">
         <v>58992.3</v>
       </c>
-      <c r="AA13" s="0" t="n">
+      <c r="AA13">
         <v>17309.8</v>
       </c>
-      <c r="AB13" s="0" t="n">
-        <v>55186.4</v>
-      </c>
-      <c r="AC13" s="0" t="n">
+      <c r="AB13">
+        <v>55186.400000000001</v>
+      </c>
+      <c r="AC13">
         <v>56642.6</v>
       </c>
-      <c r="AD13" s="0" t="n">
+      <c r="AD13">
         <v>73337.8</v>
       </c>
-      <c r="AE13" s="0" t="n">
+      <c r="AE13">
         <v>150406</v>
       </c>
-      <c r="AF13" s="0" t="n">
+      <c r="AF13">
         <v>191183</v>
       </c>
-      <c r="AG13" s="0" t="n">
+      <c r="AG13">
         <v>102565</v>
       </c>
-      <c r="AH13" s="0" t="n">
+      <c r="AH13">
         <v>65816</v>
       </c>
-      <c r="AI13" s="0" t="n">
-        <v>77558.4</v>
-      </c>
-      <c r="AJ13" s="0" t="n">
+      <c r="AI13">
+        <v>77558.399999999994</v>
+      </c>
+      <c r="AJ13">
         <v>31103.9</v>
       </c>
-      <c r="AK13" s="0" t="n">
+      <c r="AK13">
         <v>150861</v>
       </c>
-      <c r="AL13" s="0" t="n">
+      <c r="AL13">
         <v>117649</v>
       </c>
-      <c r="AM13" s="0" t="n">
+      <c r="AM13">
         <v>21727</v>
       </c>
-      <c r="AN13" s="0" t="n">
+      <c r="AN13">
         <v>111113</v>
       </c>
-      <c r="AO13" s="0" t="n">
+      <c r="AO13">
         <v>370653</v>
       </c>
-      <c r="AP13" s="0" t="n">
+      <c r="AP13">
         <v>958814</v>
       </c>
-      <c r="AQ13" s="0" t="n">
+      <c r="AQ13">
         <v>309126</v>
       </c>
-      <c r="AR13" s="0" t="n">
+      <c r="AR13">
         <v>31953.5</v>
       </c>
-      <c r="AS13" s="0" t="n">
+      <c r="AS13">
         <v>106823</v>
       </c>
-      <c r="AT13" s="0" t="n">
+      <c r="AT13">
         <v>804260</v>
       </c>
-      <c r="AU13" s="0" t="n">
+      <c r="AU13">
         <v>43331.6</v>
       </c>
-      <c r="AV13" s="0" t="n">
+      <c r="AV13">
         <v>710399</v>
       </c>
-      <c r="AW13" s="0" t="n">
+      <c r="AW13">
         <v>805424</v>
       </c>
-      <c r="AX13" s="0" t="n">
+      <c r="AX13">
         <v>638533</v>
       </c>
-      <c r="AY13" s="0" t="n">
+      <c r="AY13">
         <v>49380.6</v>
       </c>
-      <c r="AZ13" s="0" t="n">
+      <c r="AZ13">
         <v>206464</v>
       </c>
-      <c r="BA13" s="0" t="n">
+      <c r="BA13">
         <v>242075</v>
       </c>
-      <c r="BB13" s="0" t="n">
+      <c r="BB13">
         <v>225620</v>
       </c>
-      <c r="BC13" s="0" t="n">
+      <c r="BC13">
         <v>189404</v>
       </c>
-      <c r="BD13" s="0" t="n">
+      <c r="BD13">
         <v>78408.2</v>
       </c>
-      <c r="BE13" s="0" t="n">
+      <c r="BE13">
         <v>58945.4</v>
       </c>
-      <c r="BF13" s="0" t="n">
+      <c r="BF13">
         <v>146394</v>
       </c>
-      <c r="BG13" s="0" t="n">
+      <c r="BG13">
         <v>49848.9</v>
       </c>
-      <c r="BH13" s="0" t="n">
+      <c r="BH13">
         <v>280659</v>
       </c>
-      <c r="BI13" s="0" t="n">
+      <c r="BI13">
         <v>375619</v>
       </c>
-      <c r="BJ13" s="0" t="n">
+      <c r="BJ13">
         <v>202854</v>
       </c>
-      <c r="BK13" s="0" t="n">
+      <c r="BK13">
         <v>221004</v>
       </c>
-      <c r="BL13" s="0" t="n">
+      <c r="BL13">
         <v>221529</v>
       </c>
-      <c r="BM13" s="0" t="n">
+      <c r="BM13">
         <v>490520</v>
       </c>
-      <c r="BN13" s="0" t="n">
+      <c r="BN13">
         <v>438736</v>
       </c>
-      <c r="BO13" s="0" t="n">
+      <c r="BO13">
         <v>213253</v>
       </c>
-      <c r="BP13" s="0" t="n">
+      <c r="BP13">
         <v>317841</v>
       </c>
-      <c r="BQ13" s="0" t="n">
+      <c r="BQ13">
         <v>108150</v>
       </c>
-      <c r="BR13" s="0" t="n">
+      <c r="BR13">
         <v>148296</v>
       </c>
-      <c r="BS13" s="0" t="n">
+      <c r="BS13">
         <v>444590</v>
       </c>
-      <c r="BT13" s="0" t="n">
+      <c r="BT13">
         <v>275331</v>
       </c>
-      <c r="BU13" s="0" t="n">
-        <v>66141.4</v>
-      </c>
-      <c r="BV13" s="0" t="n">
+      <c r="BU13">
+        <v>66141.399999999994</v>
+      </c>
+      <c r="BV13">
         <v>131150</v>
       </c>
-      <c r="BW13" s="0" t="n">
+      <c r="BW13">
         <v>145014</v>
       </c>
-      <c r="BX13" s="0" t="n">
+      <c r="BX13">
         <v>231413</v>
       </c>
-      <c r="BY13" s="0" t="n">
+      <c r="BY13">
         <v>270181</v>
       </c>
-      <c r="BZ13" s="0" t="n">
+      <c r="BZ13">
         <v>612031</v>
       </c>
-      <c r="CA13" s="0" t="n">
+      <c r="CA13">
         <v>524897</v>
       </c>
-      <c r="CB13" s="0" t="n">
+      <c r="CB13">
         <v>369492</v>
       </c>
-      <c r="CC13" s="0" t="n">
-        <v>30637.6</v>
-      </c>
-      <c r="CD13" s="0" t="n">
+      <c r="CC13">
+        <v>30637.599999999999</v>
+      </c>
+      <c r="CD13">
         <v>259910</v>
       </c>
-      <c r="CE13" s="0" t="n">
+      <c r="CE13">
         <v>440466</v>
       </c>
-      <c r="CF13" s="0" t="n">
+      <c r="CF13">
         <v>15587.8</v>
       </c>
-      <c r="CG13" s="0" t="n">
+      <c r="CG13">
         <v>246546</v>
       </c>
-      <c r="CH13" s="0" t="n">
+      <c r="CH13">
         <v>487912</v>
       </c>
-      <c r="CI13" s="0" t="n">
+      <c r="CI13">
         <v>9607.24</v>
       </c>
-      <c r="CJ13" s="0" t="n">
+      <c r="CJ13">
         <v>229346</v>
       </c>
-      <c r="CK13" s="0" t="n">
+      <c r="CK13" s="1">
         <v>1008460</v>
       </c>
-      <c r="CL13" s="0" t="n">
+      <c r="CL13">
         <v>464603</v>
       </c>
-      <c r="CM13" s="0" t="n">
+      <c r="CM13">
         <v>105258</v>
       </c>
-      <c r="CN13" s="0" t="n">
+      <c r="CN13">
         <v>872015</v>
       </c>
-      <c r="CO13" s="0" t="n">
+      <c r="CO13">
         <v>294972</v>
       </c>
-      <c r="CP13" s="0" t="n">
+      <c r="CP13">
         <v>706076</v>
       </c>
-      <c r="CQ13" s="0" t="n">
+      <c r="CQ13">
         <v>720237</v>
       </c>
-      <c r="CR13" s="0" t="n">
-        <v>46665.6</v>
-      </c>
-      <c r="CS13" s="0" t="n">
+      <c r="CR13">
+        <v>46665.599999999999</v>
+      </c>
+      <c r="CS13">
         <v>748156</v>
       </c>
-      <c r="CT13" s="0" t="n">
+      <c r="CT13">
         <v>747764</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>90</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>204252</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>86311.3</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14">
         <v>202935</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14">
         <v>235175</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14">
         <v>237144</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14">
         <v>80045</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14">
         <v>10685.6</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14">
         <v>67581.8</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14">
         <v>241377</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="K14">
         <v>25724.7</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="L14">
         <v>19918.8</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="M14">
         <v>57713.2</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="N14">
         <v>3880.5</v>
       </c>
-      <c r="O14" s="0" t="n">
+      <c r="O14">
         <v>52696.2</v>
       </c>
-      <c r="P14" s="0" t="n">
-        <v>62696.8</v>
-      </c>
-      <c r="Q14" s="0" t="n">
+      <c r="P14">
+        <v>62696.800000000003</v>
+      </c>
+      <c r="Q14">
         <v>37626</v>
       </c>
-      <c r="R14" s="0" t="n">
+      <c r="R14">
         <v>15323.6</v>
       </c>
-      <c r="S14" s="0" t="n">
+      <c r="S14">
         <v>21465.5</v>
       </c>
-      <c r="T14" s="0" t="n">
-        <v>36660.3</v>
-      </c>
-      <c r="U14" s="0" t="n">
+      <c r="T14">
+        <v>36660.300000000003</v>
+      </c>
+      <c r="U14">
         <v>93471.2</v>
       </c>
-      <c r="V14" s="0" t="n">
+      <c r="V14">
         <v>87771.7</v>
       </c>
-      <c r="W14" s="0" t="n">
+      <c r="W14">
         <v>108509</v>
       </c>
-      <c r="X14" s="0" t="n">
+      <c r="X14">
         <v>36392</v>
       </c>
-      <c r="Y14" s="0" t="n">
+      <c r="Y14">
         <v>110087</v>
       </c>
-      <c r="Z14" s="0" t="n">
+      <c r="Z14">
         <v>58994.1</v>
       </c>
-      <c r="AA14" s="0" t="n">
+      <c r="AA14">
         <v>17409.2</v>
       </c>
-      <c r="AB14" s="0" t="n">
-        <v>55186.4</v>
-      </c>
-      <c r="AC14" s="0" t="n">
+      <c r="AB14">
+        <v>55186.400000000001</v>
+      </c>
+      <c r="AC14">
         <v>56642.6</v>
       </c>
-      <c r="AD14" s="0" t="n">
+      <c r="AD14">
         <v>73337.8</v>
       </c>
-      <c r="AE14" s="0" t="n">
+      <c r="AE14">
         <v>150406</v>
       </c>
-      <c r="AF14" s="0" t="n">
+      <c r="AF14">
         <v>191183</v>
       </c>
-      <c r="AG14" s="0" t="n">
+      <c r="AG14">
         <v>102565</v>
       </c>
-      <c r="AH14" s="0" t="n">
+      <c r="AH14">
         <v>65861</v>
       </c>
-      <c r="AI14" s="0" t="n">
-        <v>77558.4</v>
-      </c>
-      <c r="AJ14" s="0" t="n">
+      <c r="AI14">
+        <v>77558.399999999994</v>
+      </c>
+      <c r="AJ14">
         <v>31105.8</v>
       </c>
-      <c r="AK14" s="0" t="n">
+      <c r="AK14">
         <v>151277</v>
       </c>
-      <c r="AL14" s="0" t="n">
+      <c r="AL14">
         <v>117649</v>
       </c>
-      <c r="AM14" s="0" t="n">
+      <c r="AM14">
         <v>21727</v>
       </c>
-      <c r="AN14" s="0" t="n">
+      <c r="AN14">
         <v>111113</v>
       </c>
-      <c r="AO14" s="0" t="n">
+      <c r="AO14">
         <v>372127</v>
       </c>
-      <c r="AP14" s="0" t="n">
+      <c r="AP14">
         <v>959578</v>
       </c>
-      <c r="AQ14" s="0" t="n">
+      <c r="AQ14">
         <v>309797</v>
       </c>
-      <c r="AR14" s="0" t="n">
+      <c r="AR14">
         <v>32002.9</v>
       </c>
-      <c r="AS14" s="0" t="n">
+      <c r="AS14">
         <v>106823</v>
       </c>
-      <c r="AT14" s="0" t="n">
+      <c r="AT14">
         <v>805801</v>
       </c>
-      <c r="AU14" s="0" t="n">
+      <c r="AU14">
         <v>43339</v>
       </c>
-      <c r="AV14" s="0" t="n">
+      <c r="AV14">
         <v>710397</v>
       </c>
-      <c r="AW14" s="0" t="n">
+      <c r="AW14">
         <v>805424</v>
       </c>
-      <c r="AX14" s="0" t="n">
+      <c r="AX14">
         <v>638533</v>
       </c>
-      <c r="AY14" s="0" t="n">
+      <c r="AY14">
         <v>49386.8</v>
       </c>
-      <c r="AZ14" s="0" t="n">
+      <c r="AZ14">
         <v>207050</v>
       </c>
-      <c r="BA14" s="0" t="n">
+      <c r="BA14">
         <v>242501</v>
       </c>
-      <c r="BB14" s="0" t="n">
+      <c r="BB14">
         <v>225620</v>
       </c>
-      <c r="BC14" s="0" t="n">
+      <c r="BC14">
         <v>189404</v>
       </c>
-      <c r="BD14" s="0" t="n">
-        <v>78580.1</v>
-      </c>
-      <c r="BE14" s="0" t="n">
+      <c r="BD14">
+        <v>78580.100000000006</v>
+      </c>
+      <c r="BE14">
         <v>59102.7</v>
       </c>
-      <c r="BF14" s="0" t="n">
+      <c r="BF14">
         <v>146394</v>
       </c>
-      <c r="BG14" s="0" t="n">
+      <c r="BG14">
         <v>50024.1</v>
       </c>
-      <c r="BH14" s="0" t="n">
+      <c r="BH14">
         <v>280806</v>
       </c>
-      <c r="BI14" s="0" t="n">
+      <c r="BI14">
         <v>375619</v>
       </c>
-      <c r="BJ14" s="0" t="n">
+      <c r="BJ14">
         <v>202988</v>
       </c>
-      <c r="BK14" s="0" t="n">
+      <c r="BK14">
         <v>221526</v>
       </c>
-      <c r="BL14" s="0" t="n">
+      <c r="BL14">
         <v>222734</v>
       </c>
-      <c r="BM14" s="0" t="n">
+      <c r="BM14">
         <v>490520</v>
       </c>
-      <c r="BN14" s="0" t="n">
+      <c r="BN14">
         <v>438736</v>
       </c>
-      <c r="BO14" s="0" t="n">
+      <c r="BO14">
         <v>213253</v>
       </c>
-      <c r="BP14" s="0" t="n">
+      <c r="BP14">
         <v>317841</v>
       </c>
-      <c r="BQ14" s="0" t="n">
+      <c r="BQ14">
         <v>108339</v>
       </c>
-      <c r="BR14" s="0" t="n">
+      <c r="BR14">
         <v>148581</v>
       </c>
-      <c r="BS14" s="0" t="n">
+      <c r="BS14">
         <v>444807</v>
       </c>
-      <c r="BT14" s="0" t="n">
+      <c r="BT14">
         <v>277465</v>
       </c>
-      <c r="BU14" s="0" t="n">
+      <c r="BU14">
         <v>66315.8</v>
       </c>
-      <c r="BV14" s="0" t="n">
+      <c r="BV14">
         <v>131858</v>
       </c>
-      <c r="BW14" s="0" t="n">
+      <c r="BW14">
         <v>145072</v>
       </c>
-      <c r="BX14" s="0" t="n">
+      <c r="BX14">
         <v>231820</v>
       </c>
-      <c r="BY14" s="0" t="n">
+      <c r="BY14">
         <v>271614</v>
       </c>
-      <c r="BZ14" s="0" t="n">
+      <c r="BZ14">
         <v>612031</v>
       </c>
-      <c r="CA14" s="0" t="n">
+      <c r="CA14">
         <v>525041</v>
       </c>
-      <c r="CB14" s="0" t="n">
+      <c r="CB14">
         <v>369492</v>
       </c>
-      <c r="CC14" s="0" t="n">
-        <v>30646.8</v>
-      </c>
-      <c r="CD14" s="0" t="n">
+      <c r="CC14">
+        <v>30646.799999999999</v>
+      </c>
+      <c r="CD14">
         <v>260329</v>
       </c>
-      <c r="CE14" s="0" t="n">
+      <c r="CE14">
         <v>440466</v>
       </c>
-      <c r="CF14" s="0" t="n">
+      <c r="CF14">
         <v>15620.5</v>
       </c>
-      <c r="CG14" s="0" t="n">
+      <c r="CG14">
         <v>247803</v>
       </c>
-      <c r="CH14" s="0" t="n">
+      <c r="CH14">
         <v>487924</v>
       </c>
-      <c r="CI14" s="0" t="n">
+      <c r="CI14">
         <v>9607.24</v>
       </c>
-      <c r="CJ14" s="0" t="n">
+      <c r="CJ14">
         <v>229903</v>
       </c>
-      <c r="CK14" s="0" t="n">
+      <c r="CK14" s="1">
         <v>1009680</v>
       </c>
-      <c r="CL14" s="0" t="n">
+      <c r="CL14">
         <v>465781</v>
       </c>
-      <c r="CM14" s="0" t="n">
+      <c r="CM14">
         <v>105794</v>
       </c>
-      <c r="CN14" s="0" t="n">
+      <c r="CN14">
         <v>872968</v>
       </c>
-      <c r="CO14" s="0" t="n">
+      <c r="CO14">
         <v>296409</v>
       </c>
-      <c r="CP14" s="0" t="n">
+      <c r="CP14">
         <v>707170</v>
       </c>
-      <c r="CQ14" s="0" t="n">
+      <c r="CQ14">
         <v>721403</v>
       </c>
-      <c r="CR14" s="0" t="n">
-        <v>46665.6</v>
-      </c>
-      <c r="CS14" s="0" t="n">
+      <c r="CR14">
+        <v>46665.599999999999</v>
+      </c>
+      <c r="CS14">
         <v>748156</v>
       </c>
-      <c r="CT14" s="0" t="n">
+      <c r="CT14">
         <v>749036</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>100</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>204252</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>86315.5</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15">
         <v>202935</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15">
         <v>235175</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15">
         <v>237144</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15">
         <v>80045</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15">
         <v>10685.6</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15">
         <v>67601.2</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15">
         <v>241377</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="K15">
         <v>25724.7</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="L15">
         <v>19918.8</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="M15">
         <v>57718.8</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="N15">
         <v>3880.5</v>
       </c>
-      <c r="O15" s="0" t="n">
+      <c r="O15">
         <v>52696.2</v>
       </c>
-      <c r="P15" s="0" t="n">
+      <c r="P15">
         <v>62702.2</v>
       </c>
-      <c r="Q15" s="0" t="n">
+      <c r="Q15">
         <v>37626</v>
       </c>
-      <c r="R15" s="0" t="n">
+      <c r="R15">
         <v>15323.6</v>
       </c>
-      <c r="S15" s="0" t="n">
+      <c r="S15">
         <v>21467.5</v>
       </c>
-      <c r="T15" s="0" t="n">
+      <c r="T15">
         <v>36660.6</v>
       </c>
-      <c r="U15" s="0" t="n">
+      <c r="U15">
         <v>93471.2</v>
       </c>
-      <c r="V15" s="0" t="n">
+      <c r="V15">
         <v>87771.7</v>
       </c>
-      <c r="W15" s="0" t="n">
+      <c r="W15">
         <v>108569</v>
       </c>
-      <c r="X15" s="0" t="n">
+      <c r="X15">
         <v>36392</v>
       </c>
-      <c r="Y15" s="0" t="n">
+      <c r="Y15">
         <v>110087</v>
       </c>
-      <c r="Z15" s="0" t="n">
+      <c r="Z15">
         <v>59007.6</v>
       </c>
-      <c r="AA15" s="0" t="n">
-        <v>17413.9</v>
-      </c>
-      <c r="AB15" s="0" t="n">
-        <v>55186.4</v>
-      </c>
-      <c r="AC15" s="0" t="n">
+      <c r="AA15">
+        <v>17413.900000000001</v>
+      </c>
+      <c r="AB15">
+        <v>55186.400000000001</v>
+      </c>
+      <c r="AC15">
         <v>56642.6</v>
       </c>
-      <c r="AD15" s="0" t="n">
+      <c r="AD15">
         <v>73337.8</v>
       </c>
-      <c r="AE15" s="0" t="n">
+      <c r="AE15">
         <v>150406</v>
       </c>
-      <c r="AF15" s="0" t="n">
+      <c r="AF15">
         <v>191183</v>
       </c>
-      <c r="AG15" s="0" t="n">
+      <c r="AG15">
         <v>102565</v>
       </c>
-      <c r="AH15" s="0" t="n">
+      <c r="AH15">
         <v>65861</v>
       </c>
-      <c r="AI15" s="0" t="n">
-        <v>77558.4</v>
-      </c>
-      <c r="AJ15" s="0" t="n">
+      <c r="AI15">
+        <v>77558.399999999994</v>
+      </c>
+      <c r="AJ15">
         <v>31105.8</v>
       </c>
-      <c r="AK15" s="0" t="n">
+      <c r="AK15">
         <v>151274</v>
       </c>
-      <c r="AL15" s="0" t="n">
+      <c r="AL15">
         <v>117649</v>
       </c>
-      <c r="AM15" s="0" t="n">
+      <c r="AM15">
         <v>21727</v>
       </c>
-      <c r="AN15" s="0" t="n">
+      <c r="AN15">
         <v>111113</v>
       </c>
-      <c r="AO15" s="0" t="n">
+      <c r="AO15">
         <v>373301</v>
       </c>
-      <c r="AP15" s="0" t="n">
+      <c r="AP15">
         <v>959578</v>
       </c>
-      <c r="AQ15" s="0" t="n">
+      <c r="AQ15">
         <v>309898</v>
       </c>
-      <c r="AR15" s="0" t="n">
+      <c r="AR15">
         <v>32002.9</v>
       </c>
-      <c r="AS15" s="0" t="n">
+      <c r="AS15">
         <v>106823</v>
       </c>
-      <c r="AT15" s="0" t="n">
+      <c r="AT15">
         <v>806153</v>
       </c>
-      <c r="AU15" s="0" t="n">
+      <c r="AU15">
         <v>43339</v>
       </c>
-      <c r="AV15" s="0" t="n">
+      <c r="AV15">
         <v>710409</v>
       </c>
-      <c r="AW15" s="0" t="n">
+      <c r="AW15">
         <v>805424</v>
       </c>
-      <c r="AX15" s="0" t="n">
+      <c r="AX15">
         <v>638533</v>
       </c>
-      <c r="AY15" s="0" t="n">
+      <c r="AY15">
         <v>49389.8</v>
       </c>
-      <c r="AZ15" s="0" t="n">
+      <c r="AZ15">
         <v>207116</v>
       </c>
-      <c r="BA15" s="0" t="n">
+      <c r="BA15">
         <v>242587</v>
       </c>
-      <c r="BB15" s="0" t="n">
+      <c r="BB15">
         <v>225620</v>
       </c>
-      <c r="BC15" s="0" t="n">
+      <c r="BC15">
         <v>189404</v>
       </c>
-      <c r="BD15" s="0" t="n">
-        <v>78689.9</v>
-      </c>
-      <c r="BE15" s="0" t="n">
+      <c r="BD15">
+        <v>78689.899999999994</v>
+      </c>
+      <c r="BE15">
         <v>59118.7</v>
       </c>
-      <c r="BF15" s="0" t="n">
+      <c r="BF15">
         <v>146394</v>
       </c>
-      <c r="BG15" s="0" t="n">
+      <c r="BG15">
         <v>50088.1</v>
       </c>
-      <c r="BH15" s="0" t="n">
+      <c r="BH15">
         <v>280806</v>
       </c>
-      <c r="BI15" s="0" t="n">
+      <c r="BI15">
         <v>375619</v>
       </c>
-      <c r="BJ15" s="0" t="n">
+      <c r="BJ15">
         <v>203080</v>
       </c>
-      <c r="BK15" s="0" t="n">
+      <c r="BK15">
         <v>221878</v>
       </c>
-      <c r="BL15" s="0" t="n">
+      <c r="BL15">
         <v>222739</v>
       </c>
-      <c r="BM15" s="0" t="n">
+      <c r="BM15">
         <v>490520</v>
       </c>
-      <c r="BN15" s="0" t="n">
+      <c r="BN15">
         <v>438736</v>
       </c>
-      <c r="BO15" s="0" t="n">
+      <c r="BO15">
         <v>213253</v>
       </c>
-      <c r="BP15" s="0" t="n">
+      <c r="BP15">
         <v>317841</v>
       </c>
-      <c r="BQ15" s="0" t="n">
+      <c r="BQ15">
         <v>108347</v>
       </c>
-      <c r="BR15" s="0" t="n">
+      <c r="BR15">
         <v>148570</v>
       </c>
-      <c r="BS15" s="0" t="n">
+      <c r="BS15">
         <v>444807</v>
       </c>
-      <c r="BT15" s="0" t="n">
+      <c r="BT15">
         <v>277386</v>
       </c>
-      <c r="BU15" s="0" t="n">
+      <c r="BU15">
         <v>66315.8</v>
       </c>
-      <c r="BV15" s="0" t="n">
+      <c r="BV15">
         <v>131875</v>
       </c>
-      <c r="BW15" s="0" t="n">
+      <c r="BW15">
         <v>145072</v>
       </c>
-      <c r="BX15" s="0" t="n">
+      <c r="BX15">
         <v>232040</v>
       </c>
-      <c r="BY15" s="0" t="n">
+      <c r="BY15">
         <v>272055</v>
       </c>
-      <c r="BZ15" s="0" t="n">
+      <c r="BZ15">
         <v>612031</v>
       </c>
-      <c r="CA15" s="0" t="n">
+      <c r="CA15">
         <v>525041</v>
       </c>
-      <c r="CB15" s="0" t="n">
+      <c r="CB15">
         <v>369510</v>
       </c>
-      <c r="CC15" s="0" t="n">
-        <v>30646.8</v>
-      </c>
-      <c r="CD15" s="0" t="n">
+      <c r="CC15">
+        <v>30646.799999999999</v>
+      </c>
+      <c r="CD15">
         <v>260537</v>
       </c>
-      <c r="CE15" s="0" t="n">
+      <c r="CE15">
         <v>440466</v>
       </c>
-      <c r="CF15" s="0" t="n">
+      <c r="CF15">
         <v>15625</v>
       </c>
-      <c r="CG15" s="0" t="n">
+      <c r="CG15">
         <v>247980</v>
       </c>
-      <c r="CH15" s="0" t="n">
+      <c r="CH15">
         <v>487948</v>
       </c>
-      <c r="CI15" s="0" t="n">
-        <v>9608.7</v>
-      </c>
-      <c r="CJ15" s="0" t="n">
+      <c r="CI15">
+        <v>9608.7000000000007</v>
+      </c>
+      <c r="CJ15">
         <v>230013</v>
       </c>
-      <c r="CK15" s="0" t="n">
+      <c r="CK15" s="1">
         <v>1009700</v>
       </c>
-      <c r="CL15" s="0" t="n">
+      <c r="CL15">
         <v>466416</v>
       </c>
-      <c r="CM15" s="0" t="n">
+      <c r="CM15">
         <v>105911</v>
       </c>
-      <c r="CN15" s="0" t="n">
+      <c r="CN15">
         <v>873005</v>
       </c>
-      <c r="CO15" s="0" t="n">
+      <c r="CO15">
         <v>296467</v>
       </c>
-      <c r="CP15" s="0" t="n">
+      <c r="CP15">
         <v>707170</v>
       </c>
-      <c r="CQ15" s="0" t="n">
+      <c r="CQ15">
         <v>721520</v>
       </c>
-      <c r="CR15" s="0" t="n">
+      <c r="CR15">
         <v>46674.9</v>
       </c>
-      <c r="CS15" s="0" t="n">
+      <c r="CS15">
         <v>748156</v>
       </c>
-      <c r="CT15" s="0" t="n">
+      <c r="CT15">
         <v>749926</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
